--- a/GB Accounts 2023-24/GB Accounts Company 2024-2025 (Any) Excel 2007/Fixedassets.xlsx
+++ b/GB Accounts 2023-24/GB Accounts Company 2024-2025 (Any) Excel 2007/Fixedassets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\Downloads\GB Accounts Company 2023-04-30 (Apr23) Excel 2007\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antony/projects/diy-accounting/GB Accounts 2023-24/GB Accounts Company 2024-2025 (Any) Excel 2007/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34FF4FA0-FFB9-46F6-95FF-BB1F5C39DBB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2484F8E-1A68-4E4F-A123-DFC2905A713A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="724" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="24560" windowHeight="16980" tabRatio="724" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="11" r:id="rId1"/>
@@ -183,9 +183,6 @@
     <t>Monthly Interest</t>
   </si>
   <si>
-    <t>Agreement Refernce</t>
-  </si>
-  <si>
     <t>Total Interest Charged</t>
   </si>
   <si>
@@ -252,40 +249,6 @@
   </si>
   <si>
     <t>FIXED ASSET SALES</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Reconciliation totals on Row 15 should be zero.                               If Row 15 not zero check all Fixed Assets entered on       </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="18"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Purhases and Sales Spreadsheets</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="18"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">           have been recorded on the                       </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="18"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Fixed Asset Schedule.</t>
-    </r>
   </si>
   <si>
     <t>Motor Vehicles - Cars</t>
@@ -361,6 +324,12 @@
   <si>
     <t>Annual Investment Allowance</t>
   </si>
+  <si>
+    <t>Reconciliation totals on Row 15 should be zero.                               If Row 15 not zero check all Fixed Assets entered on       Purchases and Sales Spreadsheets           have been recorded on the                       Fixed Asset Schedule.</t>
+  </si>
+  <si>
+    <t>Agreement Reference</t>
+  </si>
 </sst>
 </file>
 
@@ -370,7 +339,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -378,6 +347,7 @@
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -399,11 +369,13 @@
       <sz val="10"/>
       <color indexed="18"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -432,6 +404,7 @@
     <font>
       <sz val="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -453,18 +426,13 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="18"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -665,7 +633,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -700,6 +670,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -713,14 +692,40 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -780,177 +785,140 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="205">
+  <cellXfs count="187">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="15" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="15" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="15" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="15" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="6"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="6"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="15" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="15" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="15" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -963,35 +931,31 @@
     <xf numFmtId="164" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="6"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1001,7 +965,7 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1011,44 +975,26 @@
     <xf numFmtId="1" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="15" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="4" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1056,22 +1002,16 @@
     <xf numFmtId="15" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="15" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1093,7 +1033,7 @@
     <xf numFmtId="15" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="18" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="17" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1103,22 +1043,72 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="6"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1126,9 +1116,6 @@
     <xf numFmtId="15" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1138,85 +1125,44 @@
     <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="6"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="6"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="14" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -1227,80 +1173,74 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="6"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1349,7 +1289,7 @@
         </row>
         <row r="6">
           <cell r="L6">
-            <v>44682</v>
+            <v>45047</v>
           </cell>
         </row>
         <row r="7">
@@ -1357,7 +1297,7 @@
             <v>100</v>
           </cell>
           <cell r="N7">
-            <v>45046</v>
+            <v>45412</v>
           </cell>
         </row>
         <row r="11">
@@ -1368,7 +1308,7 @@
             <v>3000</v>
           </cell>
           <cell r="N11">
-            <v>45016</v>
+            <v>45412</v>
           </cell>
         </row>
       </sheetData>
@@ -1382,18 +1322,18 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="OpeningCreditors"/>
-      <sheetName val="May22"/>
-      <sheetName val="Jun22"/>
-      <sheetName val="Jul22"/>
-      <sheetName val="Aug22"/>
-      <sheetName val="Sep22"/>
-      <sheetName val="Oct22"/>
-      <sheetName val="Nov22"/>
-      <sheetName val="Dec22"/>
-      <sheetName val="Jan23"/>
-      <sheetName val="Feb23"/>
-      <sheetName val="Mar23"/>
-      <sheetName val="Apr23"/>
+      <sheetName val="Month 01"/>
+      <sheetName val="Month 02"/>
+      <sheetName val="Month 03"/>
+      <sheetName val="Month 04"/>
+      <sheetName val="Month 05"/>
+      <sheetName val="Month 06"/>
+      <sheetName val="Month 07"/>
+      <sheetName val="Month 08"/>
+      <sheetName val="Month 09"/>
+      <sheetName val="Month 10"/>
+      <sheetName val="Month 11"/>
+      <sheetName val="Month 12"/>
       <sheetName val="ClosingCreditors"/>
     </sheetNames>
     <sheetDataSet>
@@ -1409,13 +1349,7 @@
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
-      <sheetData sheetId="12">
-        <row r="2">
-          <cell r="AI2">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
     </sheetDataSet>
   </externalBook>
@@ -1427,18 +1361,18 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="OpeningDebtors"/>
-      <sheetName val="May22"/>
-      <sheetName val="Jun22"/>
-      <sheetName val="Jul22"/>
-      <sheetName val="Aug22"/>
-      <sheetName val="Sep22"/>
-      <sheetName val="Oct22"/>
-      <sheetName val="Nov22"/>
-      <sheetName val="Dec22"/>
-      <sheetName val="Jan23"/>
-      <sheetName val="Feb23"/>
-      <sheetName val="Mar23"/>
-      <sheetName val="Apr23"/>
+      <sheetName val="Month 01"/>
+      <sheetName val="Month 02"/>
+      <sheetName val="Month 03"/>
+      <sheetName val="Month 04"/>
+      <sheetName val="Month 05"/>
+      <sheetName val="Month 06"/>
+      <sheetName val="Month 07"/>
+      <sheetName val="Month 08"/>
+      <sheetName val="Month 09"/>
+      <sheetName val="Month 10"/>
+      <sheetName val="Month 11"/>
+      <sheetName val="Month 12"/>
       <sheetName val="ClosingDebtors"/>
     </sheetNames>
     <sheetDataSet>
@@ -1454,13 +1388,7 @@
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
-      <sheetData sheetId="12">
-        <row r="2">
-          <cell r="U2">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
     </sheetDataSet>
   </externalBook>
@@ -1793,48 +1721,48 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="1.6640625" style="5" customWidth="1"/>
     <col min="2" max="2" width="11" style="4" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" style="79" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="30" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="23.5" style="79" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="30" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10.1640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="11.5" style="3" customWidth="1"/>
+    <col min="8" max="8" width="6.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="9.5" style="3" customWidth="1"/>
     <col min="11" max="11" width="11" style="3" customWidth="1"/>
-    <col min="12" max="12" width="0.85546875" style="3" customWidth="1"/>
-    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="0.85546875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="0.83203125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="6.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="0.83203125" style="3" customWidth="1"/>
     <col min="15" max="15" width="11" style="2" customWidth="1"/>
-    <col min="16" max="16" width="5.7109375" style="127" customWidth="1"/>
-    <col min="17" max="18" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.42578125" style="2" customWidth="1"/>
-    <col min="20" max="20" width="0.85546875" style="2" customWidth="1"/>
-    <col min="21" max="21" width="9.140625" style="4"/>
-    <col min="22" max="22" width="10.7109375" style="3" customWidth="1"/>
-    <col min="23" max="23" width="10.85546875" style="3" customWidth="1"/>
-    <col min="24" max="24" width="11.28515625" style="3" customWidth="1"/>
-    <col min="25" max="26" width="9.140625" style="2"/>
-    <col min="27" max="27" width="1.7109375" style="5" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="5"/>
+    <col min="16" max="16" width="5.6640625" style="88" customWidth="1"/>
+    <col min="17" max="18" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.5" style="2" customWidth="1"/>
+    <col min="20" max="20" width="0.83203125" style="2" customWidth="1"/>
+    <col min="21" max="21" width="9.1640625" style="4"/>
+    <col min="22" max="22" width="10.6640625" style="3" customWidth="1"/>
+    <col min="23" max="23" width="10.83203125" style="3" customWidth="1"/>
+    <col min="24" max="24" width="11.33203125" style="3" customWidth="1"/>
+    <col min="25" max="26" width="9.1640625" style="2"/>
+    <col min="27" max="27" width="1.6640625" style="5" customWidth="1"/>
+    <col min="28" max="16384" width="9.1640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="6" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="168"/>
-      <c r="B1" s="146" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="150" t="s">
+    <row r="1" spans="1:27" s="6" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="133"/>
+      <c r="B1" s="138" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="135" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="151"/>
+      <c r="D1" s="136"/>
       <c r="E1" s="61">
         <f>E57+E110</f>
         <v>0</v>
@@ -1847,7 +1775,7 @@
         <f>G57+G110</f>
         <v>0</v>
       </c>
-      <c r="H1" s="170" t="s">
+      <c r="H1" s="122" t="s">
         <v>10</v>
       </c>
       <c r="I1" s="19">
@@ -1862,17 +1790,17 @@
         <f>K57+K110</f>
         <v>0</v>
       </c>
-      <c r="L1" s="155"/>
-      <c r="M1" s="170" t="s">
+      <c r="L1" s="149"/>
+      <c r="M1" s="122" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="155"/>
+      <c r="N1" s="149"/>
       <c r="O1" s="19">
         <f>O57+O110</f>
         <v>0</v>
       </c>
-      <c r="P1" s="153" t="s">
-        <v>65</v>
+      <c r="P1" s="154" t="s">
+        <v>63</v>
       </c>
       <c r="Q1" s="19">
         <f>Q57+Q110</f>
@@ -1886,7 +1814,7 @@
         <f>S57+S110</f>
         <v>0</v>
       </c>
-      <c r="T1" s="155"/>
+      <c r="T1" s="149"/>
       <c r="U1" s="145" t="s">
         <v>31</v>
       </c>
@@ -1912,91 +1840,91 @@
       </c>
       <c r="AA1" s="20"/>
     </row>
-    <row r="2" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="169"/>
-      <c r="B2" s="146"/>
-      <c r="C2" s="147" t="s">
+    <row r="2" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="134"/>
+      <c r="B2" s="138"/>
+      <c r="C2" s="146" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="149" t="s">
+      <c r="D2" s="148" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="144" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="173" t="s">
-        <v>58</v>
-      </c>
-      <c r="G2" s="158" t="s">
+      <c r="F2" s="125" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="127" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" s="124"/>
+      <c r="I2" s="137" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="125" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2" s="127" t="s">
+        <v>62</v>
+      </c>
+      <c r="L2" s="150"/>
+      <c r="M2" s="123"/>
+      <c r="N2" s="150"/>
+      <c r="O2" s="127" t="s">
+        <v>61</v>
+      </c>
+      <c r="P2" s="155"/>
+      <c r="Q2" s="127" t="s">
         <v>64</v>
       </c>
-      <c r="H2" s="172"/>
-      <c r="I2" s="152" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="173" t="s">
-        <v>58</v>
-      </c>
-      <c r="K2" s="158" t="s">
-        <v>64</v>
-      </c>
-      <c r="L2" s="160"/>
-      <c r="M2" s="171"/>
-      <c r="N2" s="160"/>
-      <c r="O2" s="158" t="s">
-        <v>63</v>
-      </c>
-      <c r="P2" s="154"/>
-      <c r="Q2" s="158" t="s">
-        <v>66</v>
-      </c>
-      <c r="R2" s="158" t="s">
+      <c r="R2" s="127" t="s">
         <v>4</v>
       </c>
-      <c r="S2" s="158" t="s">
-        <v>63</v>
+      <c r="S2" s="127" t="s">
+        <v>61</v>
       </c>
       <c r="T2" s="156"/>
-      <c r="U2" s="146"/>
-      <c r="V2" s="157" t="s">
+      <c r="U2" s="138"/>
+      <c r="V2" s="143" t="s">
         <v>29</v>
       </c>
-      <c r="W2" s="157" t="s">
+      <c r="W2" s="143" t="s">
         <v>30</v>
       </c>
-      <c r="X2" s="157" t="s">
+      <c r="X2" s="143" t="s">
         <v>32</v>
       </c>
       <c r="Y2" s="144" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z2" s="144" t="s">
         <v>50</v>
       </c>
-      <c r="Z2" s="144" t="s">
-        <v>51</v>
-      </c>
       <c r="AA2" s="21"/>
     </row>
-    <row r="3" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="169"/>
-      <c r="B3" s="146"/>
-      <c r="C3" s="148"/>
-      <c r="D3" s="149"/>
+    <row r="3" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="134"/>
+      <c r="B3" s="138"/>
+      <c r="C3" s="147"/>
+      <c r="D3" s="148"/>
       <c r="E3" s="144"/>
-      <c r="F3" s="174"/>
-      <c r="G3" s="159"/>
-      <c r="H3" s="172"/>
-      <c r="I3" s="152"/>
-      <c r="J3" s="174"/>
-      <c r="K3" s="159"/>
-      <c r="L3" s="160"/>
-      <c r="M3" s="171"/>
-      <c r="N3" s="160"/>
-      <c r="O3" s="159"/>
-      <c r="P3" s="154"/>
-      <c r="Q3" s="162"/>
-      <c r="R3" s="159"/>
-      <c r="S3" s="159"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="128"/>
+      <c r="H3" s="124"/>
+      <c r="I3" s="137"/>
+      <c r="J3" s="126"/>
+      <c r="K3" s="128"/>
+      <c r="L3" s="150"/>
+      <c r="M3" s="123"/>
+      <c r="N3" s="150"/>
+      <c r="O3" s="128"/>
+      <c r="P3" s="155"/>
+      <c r="Q3" s="152"/>
+      <c r="R3" s="128"/>
+      <c r="S3" s="128"/>
       <c r="T3" s="156"/>
-      <c r="U3" s="146"/>
+      <c r="U3" s="138"/>
       <c r="V3" s="144"/>
       <c r="W3" s="144"/>
       <c r="X3" s="144"/>
@@ -2004,50 +1932,50 @@
       <c r="Z3" s="144"/>
       <c r="AA3" s="21"/>
     </row>
-    <row r="4" spans="1:27" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="169"/>
-      <c r="B4" s="146"/>
-      <c r="C4" s="148"/>
-      <c r="D4" s="149"/>
+    <row r="4" spans="1:27" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="134"/>
+      <c r="B4" s="138"/>
+      <c r="C4" s="147"/>
+      <c r="D4" s="148"/>
       <c r="E4" s="144"/>
-      <c r="F4" s="129">
+      <c r="F4" s="111">
         <f>D6</f>
-        <v>44682</v>
-      </c>
-      <c r="G4" s="129">
+        <v>45047</v>
+      </c>
+      <c r="G4" s="111">
         <f>D6</f>
-        <v>44682</v>
-      </c>
-      <c r="H4" s="172"/>
-      <c r="I4" s="152"/>
-      <c r="J4" s="129">
+        <v>45047</v>
+      </c>
+      <c r="H4" s="124"/>
+      <c r="I4" s="137"/>
+      <c r="J4" s="111">
         <f>[1]Admin!$N$7</f>
-        <v>45046</v>
-      </c>
-      <c r="K4" s="129">
+        <v>45412</v>
+      </c>
+      <c r="K4" s="111">
         <f>J4</f>
-        <v>45046</v>
-      </c>
-      <c r="L4" s="161"/>
-      <c r="M4" s="171"/>
-      <c r="N4" s="161"/>
-      <c r="O4" s="128">
+        <v>45412</v>
+      </c>
+      <c r="L4" s="151"/>
+      <c r="M4" s="123"/>
+      <c r="N4" s="151"/>
+      <c r="O4" s="110">
         <f>D6</f>
-        <v>44682</v>
-      </c>
-      <c r="P4" s="137">
+        <v>45047</v>
+      </c>
+      <c r="P4" s="119">
         <v>100</v>
       </c>
-      <c r="Q4" s="163"/>
-      <c r="R4" s="136">
+      <c r="Q4" s="153"/>
+      <c r="R4" s="118">
         <v>20</v>
       </c>
-      <c r="S4" s="128">
+      <c r="S4" s="110">
         <f>J4</f>
-        <v>45046</v>
+        <v>45412</v>
       </c>
       <c r="T4" s="156"/>
-      <c r="U4" s="146"/>
+      <c r="U4" s="138"/>
       <c r="V4" s="144"/>
       <c r="W4" s="144"/>
       <c r="X4" s="144"/>
@@ -2055,8 +1983,8 @@
       <c r="Z4" s="144"/>
       <c r="AA4" s="22"/>
     </row>
-    <row r="5" spans="1:27" s="15" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="114"/>
+    <row r="5" spans="1:27" s="15" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="99"/>
       <c r="B5" s="54"/>
       <c r="C5" s="73"/>
       <c r="D5" s="55"/>
@@ -2072,7 +2000,7 @@
       <c r="N5" s="58"/>
       <c r="O5" s="56"/>
       <c r="P5" s="55"/>
-      <c r="Q5" s="123"/>
+      <c r="Q5" s="107"/>
       <c r="R5" s="60"/>
       <c r="S5" s="56"/>
       <c r="T5" s="58"/>
@@ -2084,17 +2012,17 @@
       <c r="Z5" s="56"/>
       <c r="AA5" s="22"/>
     </row>
-    <row r="6" spans="1:27" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="115"/>
-      <c r="B6" s="164" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="165"/>
-      <c r="D6" s="166">
+    <row r="6" spans="1:27" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="100"/>
+      <c r="B6" s="120" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="121"/>
+      <c r="D6" s="139">
         <f>[1]Admin!$L$6</f>
-        <v>44682</v>
-      </c>
-      <c r="E6" s="167"/>
+        <v>45047</v>
+      </c>
+      <c r="E6" s="140"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="9"/>
@@ -2105,7 +2033,7 @@
       <c r="M6" s="9"/>
       <c r="N6" s="8"/>
       <c r="O6" s="11"/>
-      <c r="P6" s="124"/>
+      <c r="P6" s="87"/>
       <c r="Q6" s="11"/>
       <c r="R6" s="11"/>
       <c r="S6" s="11"/>
@@ -2118,12 +2046,12 @@
       <c r="Z6" s="11"/>
       <c r="AA6" s="21"/>
     </row>
-    <row r="7" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="115"/>
-      <c r="B7" s="140" t="s">
+    <row r="7" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="100"/>
+      <c r="B7" s="129" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="140"/>
+      <c r="C7" s="129"/>
       <c r="D7" s="29"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
@@ -2138,7 +2066,7 @@
       <c r="M7" s="9"/>
       <c r="N7" s="8"/>
       <c r="O7" s="11"/>
-      <c r="P7" s="124"/>
+      <c r="P7" s="87"/>
       <c r="Q7" s="11"/>
       <c r="R7" s="11"/>
       <c r="S7" s="11"/>
@@ -2151,8 +2079,8 @@
       <c r="Z7" s="11"/>
       <c r="AA7" s="21"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A8" s="115"/>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A8" s="100"/>
       <c r="B8" s="41"/>
       <c r="C8" s="74"/>
       <c r="D8" s="42"/>
@@ -2182,7 +2110,7 @@
       <c r="M8" s="13"/>
       <c r="N8" s="7"/>
       <c r="O8" s="11"/>
-      <c r="P8" s="124"/>
+      <c r="P8" s="87"/>
       <c r="Q8" s="11"/>
       <c r="R8" s="11"/>
       <c r="S8" s="11"/>
@@ -2201,8 +2129,8 @@
       <c r="Z8" s="11"/>
       <c r="AA8" s="21"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A9" s="115"/>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A9" s="100"/>
       <c r="B9" s="41"/>
       <c r="C9" s="74"/>
       <c r="D9" s="42"/>
@@ -2232,7 +2160,7 @@
       <c r="M9" s="13"/>
       <c r="N9" s="7"/>
       <c r="O9" s="11"/>
-      <c r="P9" s="124"/>
+      <c r="P9" s="87"/>
       <c r="Q9" s="11"/>
       <c r="R9" s="11"/>
       <c r="S9" s="11"/>
@@ -2251,8 +2179,8 @@
       <c r="Z9" s="11"/>
       <c r="AA9" s="21"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A10" s="115"/>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A10" s="100"/>
       <c r="B10" s="41"/>
       <c r="C10" s="74"/>
       <c r="D10" s="42"/>
@@ -2282,7 +2210,7 @@
       <c r="M10" s="13"/>
       <c r="N10" s="7"/>
       <c r="O10" s="11"/>
-      <c r="P10" s="124"/>
+      <c r="P10" s="87"/>
       <c r="Q10" s="11"/>
       <c r="R10" s="11"/>
       <c r="S10" s="11"/>
@@ -2301,14 +2229,14 @@
       <c r="Z10" s="11"/>
       <c r="AA10" s="21"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A11" s="115"/>
-      <c r="B11" s="141" t="str">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A11" s="100"/>
+      <c r="B11" s="130" t="str">
         <f>IF((E11-F11)=([1]OpenAccounts!$G$13-[1]OpenAccounts!$M$13),"Existing Land &amp; Property","Check Opening Balance Sheet figures agree")</f>
         <v>Existing Land &amp; Property</v>
       </c>
-      <c r="C11" s="142"/>
-      <c r="D11" s="143"/>
+      <c r="C11" s="131"/>
+      <c r="D11" s="132"/>
       <c r="E11" s="40">
         <f>SUM(E8:E10)</f>
         <v>0</v>
@@ -2378,8 +2306,8 @@
       </c>
       <c r="AA11" s="21"/>
     </row>
-    <row r="12" spans="1:27" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="115"/>
+    <row r="12" spans="1:27" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="100"/>
       <c r="B12" s="36"/>
       <c r="C12" s="75"/>
       <c r="D12" s="37"/>
@@ -2407,12 +2335,12 @@
       <c r="Z12" s="7"/>
       <c r="AA12" s="21"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A13" s="115"/>
-      <c r="B13" s="140" t="s">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A13" s="100"/>
+      <c r="B13" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="140"/>
+      <c r="C13" s="129"/>
       <c r="D13" s="31"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
@@ -2427,7 +2355,7 @@
       <c r="M13" s="13"/>
       <c r="N13" s="7"/>
       <c r="O13" s="11"/>
-      <c r="P13" s="124"/>
+      <c r="P13" s="87"/>
       <c r="Q13" s="11"/>
       <c r="R13" s="11"/>
       <c r="S13" s="11"/>
@@ -2440,8 +2368,8 @@
       <c r="Z13" s="11"/>
       <c r="AA13" s="21"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A14" s="115"/>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A14" s="100"/>
       <c r="B14" s="41"/>
       <c r="C14" s="74"/>
       <c r="D14" s="42"/>
@@ -2471,7 +2399,7 @@
       <c r="M14" s="13"/>
       <c r="N14" s="7"/>
       <c r="O14" s="44"/>
-      <c r="P14" s="124"/>
+      <c r="P14" s="87"/>
       <c r="Q14" s="11"/>
       <c r="R14" s="11" t="str">
         <f>IF(O14&gt;0,O14*R$4/100," ")</f>
@@ -2502,8 +2430,8 @@
       </c>
       <c r="AA14" s="21"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A15" s="115"/>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A15" s="100"/>
       <c r="B15" s="41"/>
       <c r="C15" s="74"/>
       <c r="D15" s="42"/>
@@ -2533,7 +2461,7 @@
       <c r="M15" s="13"/>
       <c r="N15" s="7"/>
       <c r="O15" s="44"/>
-      <c r="P15" s="124"/>
+      <c r="P15" s="87"/>
       <c r="Q15" s="11"/>
       <c r="R15" s="11" t="str">
         <f t="shared" ref="R15:R21" si="10">IF(O15&gt;0,O15*R$4/100," ")</f>
@@ -2564,8 +2492,8 @@
       </c>
       <c r="AA15" s="21"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A16" s="115"/>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A16" s="100"/>
       <c r="B16" s="41"/>
       <c r="C16" s="74"/>
       <c r="D16" s="42"/>
@@ -2595,7 +2523,7 @@
       <c r="M16" s="13"/>
       <c r="N16" s="7"/>
       <c r="O16" s="44"/>
-      <c r="P16" s="124"/>
+      <c r="P16" s="87"/>
       <c r="Q16" s="11"/>
       <c r="R16" s="11" t="str">
         <f t="shared" si="10"/>
@@ -2626,8 +2554,8 @@
       </c>
       <c r="AA16" s="21"/>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A17" s="115"/>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A17" s="100"/>
       <c r="B17" s="41"/>
       <c r="C17" s="74"/>
       <c r="D17" s="42"/>
@@ -2657,7 +2585,7 @@
       <c r="M17" s="13"/>
       <c r="N17" s="7"/>
       <c r="O17" s="44"/>
-      <c r="P17" s="124"/>
+      <c r="P17" s="87"/>
       <c r="Q17" s="11"/>
       <c r="R17" s="11" t="str">
         <f t="shared" si="10"/>
@@ -2688,8 +2616,8 @@
       </c>
       <c r="AA17" s="21"/>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A18" s="115"/>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A18" s="100"/>
       <c r="B18" s="41"/>
       <c r="C18" s="74"/>
       <c r="D18" s="42"/>
@@ -2719,7 +2647,7 @@
       <c r="M18" s="13"/>
       <c r="N18" s="7"/>
       <c r="O18" s="44"/>
-      <c r="P18" s="124"/>
+      <c r="P18" s="87"/>
       <c r="Q18" s="11"/>
       <c r="R18" s="11" t="str">
         <f t="shared" si="10"/>
@@ -2750,8 +2678,8 @@
       </c>
       <c r="AA18" s="21"/>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A19" s="115"/>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A19" s="100"/>
       <c r="B19" s="41"/>
       <c r="C19" s="74"/>
       <c r="D19" s="42"/>
@@ -2781,7 +2709,7 @@
       <c r="M19" s="13"/>
       <c r="N19" s="7"/>
       <c r="O19" s="44"/>
-      <c r="P19" s="124"/>
+      <c r="P19" s="87"/>
       <c r="Q19" s="11"/>
       <c r="R19" s="11" t="str">
         <f t="shared" si="10"/>
@@ -2812,8 +2740,8 @@
       </c>
       <c r="AA19" s="21"/>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A20" s="115"/>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A20" s="100"/>
       <c r="B20" s="41"/>
       <c r="C20" s="74"/>
       <c r="D20" s="42"/>
@@ -2843,7 +2771,7 @@
       <c r="M20" s="13"/>
       <c r="N20" s="7"/>
       <c r="O20" s="44"/>
-      <c r="P20" s="124"/>
+      <c r="P20" s="87"/>
       <c r="Q20" s="11"/>
       <c r="R20" s="11" t="str">
         <f t="shared" si="10"/>
@@ -2874,8 +2802,8 @@
       </c>
       <c r="AA20" s="21"/>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A21" s="115"/>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A21" s="100"/>
       <c r="B21" s="41"/>
       <c r="C21" s="74"/>
       <c r="D21" s="42"/>
@@ -2905,7 +2833,7 @@
       <c r="M21" s="13"/>
       <c r="N21" s="7"/>
       <c r="O21" s="44"/>
-      <c r="P21" s="124"/>
+      <c r="P21" s="87"/>
       <c r="Q21" s="11"/>
       <c r="R21" s="11" t="str">
         <f t="shared" si="10"/>
@@ -2936,14 +2864,14 @@
       </c>
       <c r="AA21" s="21"/>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A22" s="115"/>
-      <c r="B22" s="141" t="str">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A22" s="100"/>
+      <c r="B22" s="130" t="str">
         <f>IF((E22-F22)=([1]OpenAccounts!$H$13-[1]OpenAccounts!$N$13),"Existing Plant &amp; Machinery", "Check Opening Balance Sheet figures agree")</f>
         <v>Existing Plant &amp; Machinery</v>
       </c>
-      <c r="C22" s="142"/>
-      <c r="D22" s="143"/>
+      <c r="C22" s="131"/>
+      <c r="D22" s="132"/>
       <c r="E22" s="40">
         <f>SUM(E14:E21)</f>
         <v>0</v>
@@ -3013,8 +2941,8 @@
       </c>
       <c r="AA22" s="21"/>
     </row>
-    <row r="23" spans="1:27" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="115"/>
+    <row r="23" spans="1:27" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="100"/>
       <c r="B23" s="36"/>
       <c r="C23" s="75"/>
       <c r="D23" s="37"/>
@@ -3042,12 +2970,12 @@
       <c r="Z23" s="7"/>
       <c r="AA23" s="21"/>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A24" s="115"/>
-      <c r="B24" s="140" t="s">
-        <v>57</v>
-      </c>
-      <c r="C24" s="140"/>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A24" s="100"/>
+      <c r="B24" s="129" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="129"/>
       <c r="D24" s="31"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
@@ -3062,7 +2990,7 @@
       <c r="M24" s="13"/>
       <c r="N24" s="7"/>
       <c r="O24" s="11"/>
-      <c r="P24" s="124"/>
+      <c r="P24" s="87"/>
       <c r="Q24" s="11"/>
       <c r="R24" s="11"/>
       <c r="S24" s="11"/>
@@ -3075,8 +3003,8 @@
       <c r="Z24" s="11"/>
       <c r="AA24" s="21"/>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A25" s="115"/>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A25" s="100"/>
       <c r="B25" s="41"/>
       <c r="C25" s="74"/>
       <c r="D25" s="42"/>
@@ -3106,7 +3034,7 @@
       <c r="M25" s="13"/>
       <c r="N25" s="7"/>
       <c r="O25" s="44"/>
-      <c r="P25" s="124"/>
+      <c r="P25" s="87"/>
       <c r="Q25" s="11"/>
       <c r="R25" s="11" t="str">
         <f>IF(O25&gt;0,O25*R$4/100," ")</f>
@@ -3137,8 +3065,8 @@
       </c>
       <c r="AA25" s="21"/>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A26" s="115"/>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A26" s="100"/>
       <c r="B26" s="41"/>
       <c r="C26" s="74"/>
       <c r="D26" s="42"/>
@@ -3168,7 +3096,7 @@
       <c r="M26" s="13"/>
       <c r="N26" s="7"/>
       <c r="O26" s="44"/>
-      <c r="P26" s="124"/>
+      <c r="P26" s="87"/>
       <c r="Q26" s="11"/>
       <c r="R26" s="11" t="str">
         <f>IF(O26&gt;0,O26*R$4/100," ")</f>
@@ -3199,8 +3127,8 @@
       </c>
       <c r="AA26" s="21"/>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A27" s="115"/>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A27" s="100"/>
       <c r="B27" s="41"/>
       <c r="C27" s="74"/>
       <c r="D27" s="42"/>
@@ -3230,7 +3158,7 @@
       <c r="M27" s="13"/>
       <c r="N27" s="7"/>
       <c r="O27" s="44"/>
-      <c r="P27" s="124"/>
+      <c r="P27" s="87"/>
       <c r="Q27" s="11"/>
       <c r="R27" s="11" t="str">
         <f>IF(O27&gt;0,O27*R$4/100," ")</f>
@@ -3261,8 +3189,8 @@
       </c>
       <c r="AA27" s="21"/>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A28" s="115"/>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A28" s="100"/>
       <c r="B28" s="41"/>
       <c r="C28" s="74"/>
       <c r="D28" s="42"/>
@@ -3292,7 +3220,7 @@
       <c r="M28" s="13"/>
       <c r="N28" s="7"/>
       <c r="O28" s="44"/>
-      <c r="P28" s="124"/>
+      <c r="P28" s="87"/>
       <c r="Q28" s="11"/>
       <c r="R28" s="11" t="str">
         <f>IF(O28&gt;0,O28*R$4/100," ")</f>
@@ -3323,8 +3251,8 @@
       </c>
       <c r="AA28" s="21"/>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A29" s="115"/>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A29" s="100"/>
       <c r="B29" s="41"/>
       <c r="C29" s="74"/>
       <c r="D29" s="42"/>
@@ -3354,7 +3282,7 @@
       <c r="M29" s="13"/>
       <c r="N29" s="7"/>
       <c r="O29" s="44"/>
-      <c r="P29" s="124"/>
+      <c r="P29" s="87"/>
       <c r="Q29" s="11"/>
       <c r="R29" s="11" t="str">
         <f>IF(O29&gt;0,O29*R$4/100," ")</f>
@@ -3385,14 +3313,14 @@
       </c>
       <c r="AA29" s="21"/>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A30" s="115"/>
-      <c r="B30" s="141" t="str">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A30" s="100"/>
+      <c r="B30" s="130" t="str">
         <f>IF((E30-F30)=([1]OpenAccounts!$I$13-[1]OpenAccounts!$O$13),"Existing Fixtures &amp; Fittings","Check Opening Balance Sheet figures agree")</f>
         <v>Existing Fixtures &amp; Fittings</v>
       </c>
-      <c r="C30" s="142"/>
-      <c r="D30" s="143"/>
+      <c r="C30" s="131"/>
+      <c r="D30" s="132"/>
       <c r="E30" s="40">
         <f>SUM(E25:E29)</f>
         <v>0</v>
@@ -3462,8 +3390,8 @@
       </c>
       <c r="AA30" s="21"/>
     </row>
-    <row r="31" spans="1:27" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="115"/>
+    <row r="31" spans="1:27" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="100"/>
       <c r="B31" s="36"/>
       <c r="C31" s="75"/>
       <c r="D31" s="37"/>
@@ -3491,12 +3419,12 @@
       <c r="Z31" s="7"/>
       <c r="AA31" s="21"/>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A32" s="115"/>
-      <c r="B32" s="140" t="s">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A32" s="100"/>
+      <c r="B32" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="140"/>
+      <c r="C32" s="129"/>
       <c r="D32" s="32"/>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
@@ -3511,7 +3439,7 @@
       <c r="M32" s="13"/>
       <c r="N32" s="7"/>
       <c r="O32" s="11"/>
-      <c r="P32" s="124"/>
+      <c r="P32" s="87"/>
       <c r="Q32" s="11"/>
       <c r="R32" s="11"/>
       <c r="S32" s="11"/>
@@ -3524,8 +3452,8 @@
       <c r="Z32" s="11"/>
       <c r="AA32" s="21"/>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A33" s="115"/>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A33" s="100"/>
       <c r="B33" s="41"/>
       <c r="C33" s="74"/>
       <c r="D33" s="42"/>
@@ -3555,7 +3483,7 @@
       <c r="M33" s="13"/>
       <c r="N33" s="7"/>
       <c r="O33" s="44"/>
-      <c r="P33" s="124"/>
+      <c r="P33" s="87"/>
       <c r="Q33" s="11"/>
       <c r="R33" s="11" t="str">
         <f t="shared" ref="R33:R40" si="16">IF(O33&gt;0,O33*R$4/100," ")</f>
@@ -3586,8 +3514,8 @@
       </c>
       <c r="AA33" s="21"/>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A34" s="115"/>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A34" s="100"/>
       <c r="B34" s="41"/>
       <c r="C34" s="74"/>
       <c r="D34" s="42"/>
@@ -3617,7 +3545,7 @@
       <c r="M34" s="13"/>
       <c r="N34" s="7"/>
       <c r="O34" s="44"/>
-      <c r="P34" s="124"/>
+      <c r="P34" s="87"/>
       <c r="Q34" s="11"/>
       <c r="R34" s="11" t="str">
         <f t="shared" si="16"/>
@@ -3648,8 +3576,8 @@
       </c>
       <c r="AA34" s="21"/>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A35" s="115"/>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A35" s="100"/>
       <c r="B35" s="41"/>
       <c r="C35" s="74"/>
       <c r="D35" s="42"/>
@@ -3679,7 +3607,7 @@
       <c r="M35" s="13"/>
       <c r="N35" s="7"/>
       <c r="O35" s="44"/>
-      <c r="P35" s="124"/>
+      <c r="P35" s="87"/>
       <c r="Q35" s="11"/>
       <c r="R35" s="11" t="str">
         <f t="shared" si="16"/>
@@ -3710,8 +3638,8 @@
       </c>
       <c r="AA35" s="21"/>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A36" s="115"/>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A36" s="100"/>
       <c r="B36" s="41"/>
       <c r="C36" s="74"/>
       <c r="D36" s="42"/>
@@ -3741,7 +3669,7 @@
       <c r="M36" s="13"/>
       <c r="N36" s="7"/>
       <c r="O36" s="44"/>
-      <c r="P36" s="124"/>
+      <c r="P36" s="87"/>
       <c r="Q36" s="11"/>
       <c r="R36" s="11" t="str">
         <f t="shared" si="16"/>
@@ -3772,8 +3700,8 @@
       </c>
       <c r="AA36" s="21"/>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A37" s="115"/>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A37" s="100"/>
       <c r="B37" s="41"/>
       <c r="C37" s="74"/>
       <c r="D37" s="42"/>
@@ -3803,7 +3731,7 @@
       <c r="M37" s="13"/>
       <c r="N37" s="7"/>
       <c r="O37" s="44"/>
-      <c r="P37" s="124"/>
+      <c r="P37" s="87"/>
       <c r="Q37" s="11"/>
       <c r="R37" s="11" t="str">
         <f t="shared" si="16"/>
@@ -3834,8 +3762,8 @@
       </c>
       <c r="AA37" s="21"/>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A38" s="115"/>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A38" s="100"/>
       <c r="B38" s="41"/>
       <c r="C38" s="74"/>
       <c r="D38" s="42"/>
@@ -3865,7 +3793,7 @@
       <c r="M38" s="13"/>
       <c r="N38" s="7"/>
       <c r="O38" s="44"/>
-      <c r="P38" s="124"/>
+      <c r="P38" s="87"/>
       <c r="Q38" s="11"/>
       <c r="R38" s="11" t="str">
         <f t="shared" si="16"/>
@@ -3896,8 +3824,8 @@
       </c>
       <c r="AA38" s="21"/>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A39" s="115"/>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A39" s="100"/>
       <c r="B39" s="41"/>
       <c r="C39" s="74"/>
       <c r="D39" s="42"/>
@@ -3927,7 +3855,7 @@
       <c r="M39" s="13"/>
       <c r="N39" s="7"/>
       <c r="O39" s="44"/>
-      <c r="P39" s="124"/>
+      <c r="P39" s="87"/>
       <c r="Q39" s="11"/>
       <c r="R39" s="11" t="str">
         <f t="shared" si="16"/>
@@ -3958,8 +3886,8 @@
       </c>
       <c r="AA39" s="21"/>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A40" s="115"/>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A40" s="100"/>
       <c r="B40" s="41"/>
       <c r="C40" s="74"/>
       <c r="D40" s="42"/>
@@ -3989,7 +3917,7 @@
       <c r="M40" s="13"/>
       <c r="N40" s="7"/>
       <c r="O40" s="44"/>
-      <c r="P40" s="124"/>
+      <c r="P40" s="87"/>
       <c r="Q40" s="11"/>
       <c r="R40" s="11" t="str">
         <f t="shared" si="16"/>
@@ -4020,14 +3948,14 @@
       </c>
       <c r="AA40" s="21"/>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A41" s="115"/>
-      <c r="B41" s="141" t="str">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A41" s="100"/>
+      <c r="B41" s="130" t="str">
         <f>IF((E41-F41)=([1]OpenAccounts!$J$13-[1]OpenAccounts!$P$13),"Existing Computers","Check Opening Balkance Sheet figures agree")</f>
         <v>Existing Computers</v>
       </c>
-      <c r="C41" s="142"/>
-      <c r="D41" s="143"/>
+      <c r="C41" s="131"/>
+      <c r="D41" s="132"/>
       <c r="E41" s="40">
         <f>SUM(E33:E40)</f>
         <v>0</v>
@@ -4097,8 +4025,8 @@
       </c>
       <c r="AA41" s="21"/>
     </row>
-    <row r="42" spans="1:27" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="115"/>
+    <row r="42" spans="1:27" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="100"/>
       <c r="B42" s="36"/>
       <c r="C42" s="75"/>
       <c r="D42" s="37"/>
@@ -4126,12 +4054,12 @@
       <c r="Z42" s="7"/>
       <c r="AA42" s="21"/>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A43" s="115"/>
-      <c r="B43" s="140" t="s">
-        <v>55</v>
-      </c>
-      <c r="C43" s="140"/>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A43" s="100"/>
+      <c r="B43" s="129" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43" s="129"/>
       <c r="D43" s="32"/>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
@@ -4159,8 +4087,8 @@
       <c r="Z43" s="7"/>
       <c r="AA43" s="21"/>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A44" s="115"/>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A44" s="100"/>
       <c r="B44" s="41"/>
       <c r="C44" s="74"/>
       <c r="D44" s="42"/>
@@ -4192,7 +4120,7 @@
       </c>
       <c r="N44" s="7"/>
       <c r="O44" s="44"/>
-      <c r="P44" s="124"/>
+      <c r="P44" s="87"/>
       <c r="Q44" s="11"/>
       <c r="R44" s="11" t="str">
         <f>IF(O44&gt;0,MIN(O44*R$4/100*(1-M44),3000*(1-M44))," ")</f>
@@ -4223,8 +4151,8 @@
       </c>
       <c r="AA44" s="21"/>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A45" s="115"/>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A45" s="100"/>
       <c r="B45" s="41"/>
       <c r="C45" s="74"/>
       <c r="D45" s="42"/>
@@ -4256,7 +4184,7 @@
       </c>
       <c r="N45" s="7"/>
       <c r="O45" s="44"/>
-      <c r="P45" s="124"/>
+      <c r="P45" s="87"/>
       <c r="Q45" s="11"/>
       <c r="R45" s="11" t="str">
         <f t="shared" ref="R45:R48" si="31">IF(O45&gt;0,MIN(O45*R$4/100*(1-M45),3000*(1-M45))," ")</f>
@@ -4287,8 +4215,8 @@
       </c>
       <c r="AA45" s="21"/>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A46" s="115"/>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A46" s="100"/>
       <c r="B46" s="41"/>
       <c r="C46" s="74"/>
       <c r="D46" s="42"/>
@@ -4320,7 +4248,7 @@
       </c>
       <c r="N46" s="7"/>
       <c r="O46" s="44"/>
-      <c r="P46" s="124"/>
+      <c r="P46" s="87"/>
       <c r="Q46" s="11"/>
       <c r="R46" s="11" t="str">
         <f t="shared" si="31"/>
@@ -4351,8 +4279,8 @@
       </c>
       <c r="AA46" s="21"/>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A47" s="115"/>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A47" s="100"/>
       <c r="B47" s="41"/>
       <c r="C47" s="74"/>
       <c r="D47" s="42"/>
@@ -4384,7 +4312,7 @@
       </c>
       <c r="N47" s="7"/>
       <c r="O47" s="44"/>
-      <c r="P47" s="124"/>
+      <c r="P47" s="87"/>
       <c r="Q47" s="11"/>
       <c r="R47" s="11" t="str">
         <f t="shared" si="31"/>
@@ -4415,8 +4343,8 @@
       </c>
       <c r="AA47" s="21"/>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A48" s="115"/>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A48" s="100"/>
       <c r="B48" s="41"/>
       <c r="C48" s="74"/>
       <c r="D48" s="42"/>
@@ -4448,7 +4376,7 @@
       </c>
       <c r="N48" s="7"/>
       <c r="O48" s="44"/>
-      <c r="P48" s="124"/>
+      <c r="P48" s="87"/>
       <c r="Q48" s="11"/>
       <c r="R48" s="11" t="str">
         <f t="shared" si="31"/>
@@ -4479,12 +4407,12 @@
       </c>
       <c r="AA48" s="21"/>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A49" s="115"/>
-      <c r="B49" s="140" t="s">
-        <v>56</v>
-      </c>
-      <c r="C49" s="140"/>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A49" s="100"/>
+      <c r="B49" s="129" t="s">
+        <v>54</v>
+      </c>
+      <c r="C49" s="129"/>
       <c r="D49" s="31"/>
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
@@ -4497,7 +4425,7 @@
       <c r="M49" s="13"/>
       <c r="N49" s="7"/>
       <c r="O49" s="11"/>
-      <c r="P49" s="124"/>
+      <c r="P49" s="87"/>
       <c r="Q49" s="11"/>
       <c r="R49" s="11"/>
       <c r="S49" s="11"/>
@@ -4510,8 +4438,8 @@
       <c r="Z49" s="11"/>
       <c r="AA49" s="21"/>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A50" s="115"/>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A50" s="100"/>
       <c r="B50" s="41"/>
       <c r="C50" s="74"/>
       <c r="D50" s="42"/>
@@ -4543,7 +4471,7 @@
       </c>
       <c r="N50" s="7"/>
       <c r="O50" s="44"/>
-      <c r="P50" s="124"/>
+      <c r="P50" s="87"/>
       <c r="Q50" s="11"/>
       <c r="R50" s="11" t="str">
         <f>IF(O50&gt;0,IF(O50&gt;[1]Admin!$E$11,[1]Admin!$G$11*(1-M50),O50*R$4/100)*(1-M50)," ")</f>
@@ -4574,8 +4502,8 @@
       </c>
       <c r="AA50" s="21"/>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A51" s="115"/>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A51" s="100"/>
       <c r="B51" s="41"/>
       <c r="C51" s="74"/>
       <c r="D51" s="42"/>
@@ -4607,7 +4535,7 @@
       </c>
       <c r="N51" s="7"/>
       <c r="O51" s="44"/>
-      <c r="P51" s="124"/>
+      <c r="P51" s="87"/>
       <c r="Q51" s="11"/>
       <c r="R51" s="11" t="str">
         <f>IF(O51&gt;0,IF(O51&gt;[1]Admin!$E$11,[1]Admin!$G$11*(1-M51),O51*R$4/100)*(1-M51)," ")</f>
@@ -4638,8 +4566,8 @@
       </c>
       <c r="AA51" s="21"/>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A52" s="115"/>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A52" s="100"/>
       <c r="B52" s="41"/>
       <c r="C52" s="74"/>
       <c r="D52" s="42"/>
@@ -4671,7 +4599,7 @@
       </c>
       <c r="N52" s="7"/>
       <c r="O52" s="44"/>
-      <c r="P52" s="124"/>
+      <c r="P52" s="87"/>
       <c r="Q52" s="11"/>
       <c r="R52" s="11" t="str">
         <f>IF(O52&gt;0,IF(O52&gt;[1]Admin!$E$11,[1]Admin!$G$11*(1-M52),O52*R$4/100)*(1-M52)," ")</f>
@@ -4702,8 +4630,8 @@
       </c>
       <c r="AA52" s="21"/>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A53" s="115"/>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A53" s="100"/>
       <c r="B53" s="41"/>
       <c r="C53" s="74"/>
       <c r="D53" s="42"/>
@@ -4735,7 +4663,7 @@
       </c>
       <c r="N53" s="7"/>
       <c r="O53" s="44"/>
-      <c r="P53" s="124"/>
+      <c r="P53" s="87"/>
       <c r="Q53" s="11"/>
       <c r="R53" s="11" t="str">
         <f>IF(O53&gt;0,IF(O53&gt;[1]Admin!$E$11,[1]Admin!$G$11*(1-M53),O53*R$4/100)*(1-M53)," ")</f>
@@ -4766,8 +4694,8 @@
       </c>
       <c r="AA53" s="21"/>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A54" s="115"/>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A54" s="100"/>
       <c r="B54" s="41"/>
       <c r="C54" s="74"/>
       <c r="D54" s="42"/>
@@ -4799,7 +4727,7 @@
       </c>
       <c r="N54" s="7"/>
       <c r="O54" s="44"/>
-      <c r="P54" s="124"/>
+      <c r="P54" s="87"/>
       <c r="Q54" s="11"/>
       <c r="R54" s="11" t="str">
         <f>IF(O54&gt;0,IF(O54&gt;[1]Admin!$E$11,[1]Admin!$G$11*(1-M54),O54*R$4/100)*(1-M54)," ")</f>
@@ -4830,14 +4758,14 @@
       </c>
       <c r="AA54" s="21"/>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A55" s="115"/>
-      <c r="B55" s="141" t="str">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A55" s="100"/>
+      <c r="B55" s="130" t="str">
         <f>IF((E55-F55)=([1]OpenAccounts!$K$13-[1]OpenAccounts!$Q$13),"Existing Motor Vehicles","Check Opening Balance Sheet figures agree")</f>
         <v>Existing Motor Vehicles</v>
       </c>
-      <c r="C55" s="142"/>
-      <c r="D55" s="143"/>
+      <c r="C55" s="131"/>
+      <c r="D55" s="132"/>
       <c r="E55" s="40">
         <f>SUM(E44:E54)</f>
         <v>0</v>
@@ -4907,8 +4835,8 @@
       </c>
       <c r="AA55" s="21"/>
     </row>
-    <row r="56" spans="1:27" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="115"/>
+    <row r="56" spans="1:27" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="100"/>
       <c r="B56" s="12"/>
       <c r="C56" s="76"/>
       <c r="D56" s="31"/>
@@ -4923,7 +4851,7 @@
       <c r="M56" s="13"/>
       <c r="N56" s="7"/>
       <c r="O56" s="11"/>
-      <c r="P56" s="124"/>
+      <c r="P56" s="87"/>
       <c r="Q56" s="11"/>
       <c r="R56" s="11"/>
       <c r="S56" s="11"/>
@@ -4936,16 +4864,16 @@
       <c r="Z56" s="11"/>
       <c r="AA56" s="21"/>
     </row>
-    <row r="57" spans="1:27" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="115"/>
-      <c r="B57" s="164" t="str">
+    <row r="57" spans="1:27" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="100"/>
+      <c r="B57" s="120" t="str">
         <f>B6</f>
         <v xml:space="preserve">EXISTING FIXED ASSETS AT </v>
       </c>
-      <c r="C57" s="165"/>
-      <c r="D57" s="133">
+      <c r="C57" s="121"/>
+      <c r="D57" s="115">
         <f>D6</f>
-        <v>44682</v>
+        <v>45047</v>
       </c>
       <c r="E57" s="18">
         <f>E11+E22+E30+E41+E55</f>
@@ -5016,8 +4944,8 @@
       </c>
       <c r="AA57" s="21"/>
     </row>
-    <row r="58" spans="1:27" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="115"/>
+    <row r="58" spans="1:27" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="100"/>
       <c r="B58" s="14"/>
       <c r="C58" s="77"/>
       <c r="D58" s="33"/>
@@ -5032,7 +4960,7 @@
       <c r="M58" s="13"/>
       <c r="N58" s="7"/>
       <c r="O58" s="11"/>
-      <c r="P58" s="124"/>
+      <c r="P58" s="87"/>
       <c r="Q58" s="11"/>
       <c r="R58" s="11"/>
       <c r="S58" s="11"/>
@@ -5045,24 +4973,24 @@
       <c r="Z58" s="11"/>
       <c r="AA58" s="21"/>
     </row>
-    <row r="59" spans="1:27" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="115"/>
-      <c r="B59" s="138" t="s">
-        <v>60</v>
-      </c>
-      <c r="C59" s="139"/>
-      <c r="D59" s="134">
+    <row r="59" spans="1:27" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="100"/>
+      <c r="B59" s="141" t="s">
+        <v>58</v>
+      </c>
+      <c r="C59" s="142"/>
+      <c r="D59" s="116">
         <f>D57</f>
-        <v>44682</v>
-      </c>
-      <c r="E59" s="131" t="s">
-        <v>61</v>
-      </c>
-      <c r="F59" s="135">
+        <v>45047</v>
+      </c>
+      <c r="E59" s="113" t="s">
+        <v>59</v>
+      </c>
+      <c r="F59" s="117">
         <f>J4</f>
-        <v>45046</v>
-      </c>
-      <c r="G59" s="132"/>
+        <v>45412</v>
+      </c>
+      <c r="G59" s="114"/>
       <c r="H59" s="13"/>
       <c r="I59" s="11"/>
       <c r="J59" s="11"/>
@@ -5071,7 +4999,7 @@
       <c r="M59" s="13"/>
       <c r="N59" s="11"/>
       <c r="O59" s="11"/>
-      <c r="P59" s="124"/>
+      <c r="P59" s="87"/>
       <c r="Q59" s="11"/>
       <c r="R59" s="11"/>
       <c r="S59" s="11"/>
@@ -5084,16 +5012,16 @@
       <c r="Z59" s="11"/>
       <c r="AA59" s="21"/>
     </row>
-    <row r="60" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="115"/>
-      <c r="B60" s="140" t="s">
+    <row r="60" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="100"/>
+      <c r="B60" s="129" t="s">
         <v>9</v>
       </c>
-      <c r="C60" s="140"/>
+      <c r="C60" s="129"/>
       <c r="D60" s="29"/>
       <c r="E60" s="8"/>
-      <c r="F60" s="132"/>
-      <c r="G60" s="132"/>
+      <c r="F60" s="114"/>
+      <c r="G60" s="114"/>
       <c r="H60" s="38">
         <f>H$7</f>
         <v>0</v>
@@ -5105,7 +5033,7 @@
       <c r="M60" s="13"/>
       <c r="N60" s="8"/>
       <c r="O60" s="11"/>
-      <c r="P60" s="124"/>
+      <c r="P60" s="87"/>
       <c r="Q60" s="11"/>
       <c r="R60" s="11"/>
       <c r="S60" s="11"/>
@@ -5118,8 +5046,8 @@
       <c r="Z60" s="11"/>
       <c r="AA60" s="21"/>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A61" s="115"/>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A61" s="100"/>
       <c r="B61" s="41"/>
       <c r="C61" s="74"/>
       <c r="D61" s="45"/>
@@ -5146,7 +5074,7 @@
       <c r="M61" s="13"/>
       <c r="N61" s="7"/>
       <c r="O61" s="11"/>
-      <c r="P61" s="124"/>
+      <c r="P61" s="87"/>
       <c r="Q61" s="11"/>
       <c r="R61" s="11"/>
       <c r="S61" s="11"/>
@@ -5165,8 +5093,8 @@
       <c r="Z61" s="11"/>
       <c r="AA61" s="21"/>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A62" s="115"/>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A62" s="100"/>
       <c r="B62" s="41"/>
       <c r="C62" s="74"/>
       <c r="D62" s="45"/>
@@ -5193,7 +5121,7 @@
       <c r="M62" s="13"/>
       <c r="N62" s="7"/>
       <c r="O62" s="11"/>
-      <c r="P62" s="124"/>
+      <c r="P62" s="87"/>
       <c r="Q62" s="11"/>
       <c r="R62" s="11"/>
       <c r="S62" s="11"/>
@@ -5212,8 +5140,8 @@
       <c r="Z62" s="11"/>
       <c r="AA62" s="21"/>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A63" s="115"/>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A63" s="100"/>
       <c r="B63" s="41"/>
       <c r="C63" s="74"/>
       <c r="D63" s="45"/>
@@ -5240,7 +5168,7 @@
       <c r="M63" s="13"/>
       <c r="N63" s="7"/>
       <c r="O63" s="11"/>
-      <c r="P63" s="124"/>
+      <c r="P63" s="87"/>
       <c r="Q63" s="11"/>
       <c r="R63" s="11"/>
       <c r="S63" s="11"/>
@@ -5259,13 +5187,13 @@
       <c r="Z63" s="11"/>
       <c r="AA63" s="21"/>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A64" s="115"/>
-      <c r="B64" s="141" t="s">
+    <row r="64" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A64" s="100"/>
+      <c r="B64" s="130" t="s">
         <v>11</v>
       </c>
-      <c r="C64" s="142"/>
-      <c r="D64" s="143"/>
+      <c r="C64" s="131"/>
+      <c r="D64" s="132"/>
       <c r="E64" s="40">
         <f>SUM(E61:E63)</f>
         <v>0</v>
@@ -5298,7 +5226,7 @@
         <f>SUM(O61:O63)</f>
         <v>0</v>
       </c>
-      <c r="P64" s="125"/>
+      <c r="P64" s="108"/>
       <c r="Q64" s="16">
         <f>SUM(Q61:Q63)</f>
         <v>0</v>
@@ -5335,8 +5263,8 @@
       </c>
       <c r="AA64" s="21"/>
     </row>
-    <row r="65" spans="1:27" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="115"/>
+    <row r="65" spans="1:27" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="100"/>
       <c r="B65" s="36"/>
       <c r="C65" s="75"/>
       <c r="D65" s="37"/>
@@ -5364,12 +5292,12 @@
       <c r="Z65" s="7"/>
       <c r="AA65" s="21"/>
     </row>
-    <row r="66" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="115"/>
-      <c r="B66" s="140" t="s">
+    <row r="66" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="100"/>
+      <c r="B66" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="C66" s="140"/>
+      <c r="C66" s="129"/>
       <c r="D66" s="31"/>
       <c r="E66" s="7"/>
       <c r="F66" s="7"/>
@@ -5385,7 +5313,7 @@
       <c r="M66" s="13"/>
       <c r="N66" s="7"/>
       <c r="O66" s="11"/>
-      <c r="P66" s="124"/>
+      <c r="P66" s="87"/>
       <c r="Q66" s="11"/>
       <c r="R66" s="11"/>
       <c r="S66" s="11"/>
@@ -5398,8 +5326,8 @@
       <c r="Z66" s="11"/>
       <c r="AA66" s="21"/>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A67" s="115"/>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A67" s="100"/>
       <c r="B67" s="41"/>
       <c r="C67" s="74"/>
       <c r="D67" s="42"/>
@@ -5426,7 +5354,7 @@
       <c r="M67" s="13"/>
       <c r="N67" s="7"/>
       <c r="O67" s="11"/>
-      <c r="P67" s="124">
+      <c r="P67" s="87">
         <f>IF(B67&gt;0,IF(B67&gt;[1]Admin!$N$11,[1]Admin!$G$7,[1]Admin!$G$5),[1]Admin!$G$5)</f>
         <v>100</v>
       </c>
@@ -5460,8 +5388,8 @@
       </c>
       <c r="AA67" s="21"/>
     </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A68" s="115"/>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A68" s="100"/>
       <c r="B68" s="41"/>
       <c r="C68" s="74"/>
       <c r="D68" s="42"/>
@@ -5488,7 +5416,7 @@
       <c r="M68" s="13"/>
       <c r="N68" s="7"/>
       <c r="O68" s="11"/>
-      <c r="P68" s="124">
+      <c r="P68" s="87">
         <f>IF(B68&gt;0,IF(B68&gt;[1]Admin!$N$11,[1]Admin!$G$7,[1]Admin!$G$5),[1]Admin!$G$5)</f>
         <v>100</v>
       </c>
@@ -5522,8 +5450,8 @@
       </c>
       <c r="AA68" s="21"/>
     </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A69" s="115"/>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A69" s="100"/>
       <c r="B69" s="41"/>
       <c r="C69" s="74"/>
       <c r="D69" s="42"/>
@@ -5550,7 +5478,7 @@
       <c r="M69" s="13"/>
       <c r="N69" s="7"/>
       <c r="O69" s="11"/>
-      <c r="P69" s="124">
+      <c r="P69" s="87">
         <f>IF(B69&gt;0,IF(B69&gt;[1]Admin!$N$11,[1]Admin!$G$7,[1]Admin!$G$5),[1]Admin!$G$5)</f>
         <v>100</v>
       </c>
@@ -5584,8 +5512,8 @@
       </c>
       <c r="AA69" s="21"/>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A70" s="115"/>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A70" s="100"/>
       <c r="B70" s="41"/>
       <c r="C70" s="74"/>
       <c r="D70" s="42"/>
@@ -5612,7 +5540,7 @@
       <c r="M70" s="13"/>
       <c r="N70" s="7"/>
       <c r="O70" s="11"/>
-      <c r="P70" s="124">
+      <c r="P70" s="87">
         <f>IF(B70&gt;0,IF(B70&gt;[1]Admin!$N$11,[1]Admin!$G$7,[1]Admin!$G$5),[1]Admin!$G$5)</f>
         <v>100</v>
       </c>
@@ -5646,8 +5574,8 @@
       </c>
       <c r="AA70" s="21"/>
     </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A71" s="115"/>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A71" s="100"/>
       <c r="B71" s="41"/>
       <c r="C71" s="74"/>
       <c r="D71" s="42"/>
@@ -5674,7 +5602,7 @@
       <c r="M71" s="13"/>
       <c r="N71" s="7"/>
       <c r="O71" s="11"/>
-      <c r="P71" s="124">
+      <c r="P71" s="87">
         <f>IF(B71&gt;0,IF(B71&gt;[1]Admin!$N$11,[1]Admin!$G$7,[1]Admin!$G$5),[1]Admin!$G$5)</f>
         <v>100</v>
       </c>
@@ -5708,8 +5636,8 @@
       </c>
       <c r="AA71" s="21"/>
     </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A72" s="115"/>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A72" s="100"/>
       <c r="B72" s="41"/>
       <c r="C72" s="74"/>
       <c r="D72" s="42"/>
@@ -5736,7 +5664,7 @@
       <c r="M72" s="13"/>
       <c r="N72" s="7"/>
       <c r="O72" s="11"/>
-      <c r="P72" s="124">
+      <c r="P72" s="87">
         <f>IF(B72&gt;0,IF(B72&gt;[1]Admin!$N$11,[1]Admin!$G$7,[1]Admin!$G$5),[1]Admin!$G$5)</f>
         <v>100</v>
       </c>
@@ -5770,8 +5698,8 @@
       </c>
       <c r="AA72" s="21"/>
     </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A73" s="115"/>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A73" s="100"/>
       <c r="B73" s="41"/>
       <c r="C73" s="74"/>
       <c r="D73" s="42"/>
@@ -5798,7 +5726,7 @@
       <c r="M73" s="13"/>
       <c r="N73" s="7"/>
       <c r="O73" s="11"/>
-      <c r="P73" s="124">
+      <c r="P73" s="87">
         <f>IF(B73&gt;0,IF(B73&gt;[1]Admin!$N$11,[1]Admin!$G$7,[1]Admin!$G$5),[1]Admin!$G$5)</f>
         <v>100</v>
       </c>
@@ -5832,8 +5760,8 @@
       </c>
       <c r="AA73" s="21"/>
     </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A74" s="115"/>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A74" s="100"/>
       <c r="B74" s="41"/>
       <c r="C74" s="74"/>
       <c r="D74" s="42"/>
@@ -5860,7 +5788,7 @@
       <c r="M74" s="13"/>
       <c r="N74" s="7"/>
       <c r="O74" s="11"/>
-      <c r="P74" s="124">
+      <c r="P74" s="87">
         <f>IF(B74&gt;0,IF(B74&gt;[1]Admin!$N$11,[1]Admin!$G$7,[1]Admin!$G$5),[1]Admin!$G$5)</f>
         <v>100</v>
       </c>
@@ -5894,13 +5822,13 @@
       </c>
       <c r="AA74" s="21"/>
     </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A75" s="115"/>
-      <c r="B75" s="141" t="s">
+    <row r="75" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A75" s="100"/>
+      <c r="B75" s="130" t="s">
         <v>12</v>
       </c>
-      <c r="C75" s="142"/>
-      <c r="D75" s="143"/>
+      <c r="C75" s="131"/>
+      <c r="D75" s="132"/>
       <c r="E75" s="40">
         <f>SUM(E67:E74)</f>
         <v>0</v>
@@ -5970,8 +5898,8 @@
       </c>
       <c r="AA75" s="21"/>
     </row>
-    <row r="76" spans="1:27" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="115"/>
+    <row r="76" spans="1:27" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="100"/>
       <c r="B76" s="36"/>
       <c r="C76" s="75"/>
       <c r="D76" s="37"/>
@@ -5999,12 +5927,12 @@
       <c r="Z76" s="7"/>
       <c r="AA76" s="21"/>
     </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A77" s="115"/>
-      <c r="B77" s="140" t="s">
-        <v>57</v>
-      </c>
-      <c r="C77" s="140"/>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A77" s="100"/>
+      <c r="B77" s="129" t="s">
+        <v>55</v>
+      </c>
+      <c r="C77" s="129"/>
       <c r="D77" s="31"/>
       <c r="E77" s="7"/>
       <c r="F77" s="7"/>
@@ -6020,7 +5948,7 @@
       <c r="M77" s="13"/>
       <c r="N77" s="7"/>
       <c r="O77" s="11"/>
-      <c r="P77" s="124"/>
+      <c r="P77" s="87"/>
       <c r="Q77" s="11"/>
       <c r="R77" s="11"/>
       <c r="S77" s="11"/>
@@ -6033,8 +5961,8 @@
       <c r="Z77" s="11"/>
       <c r="AA77" s="21"/>
     </row>
-    <row r="78" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="115"/>
+    <row r="78" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="100"/>
       <c r="B78" s="41"/>
       <c r="C78" s="74"/>
       <c r="D78" s="45"/>
@@ -6061,7 +5989,7 @@
       <c r="M78" s="13"/>
       <c r="N78" s="7"/>
       <c r="O78" s="11"/>
-      <c r="P78" s="124">
+      <c r="P78" s="87">
         <f>IF(B78&gt;0,IF(B78&gt;[1]Admin!$N$11,[1]Admin!$G$7,[1]Admin!$G$5),[1]Admin!$G$5)</f>
         <v>100</v>
       </c>
@@ -6095,8 +6023,8 @@
       </c>
       <c r="AA78" s="21"/>
     </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A79" s="115"/>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A79" s="100"/>
       <c r="B79" s="41"/>
       <c r="C79" s="74"/>
       <c r="D79" s="45"/>
@@ -6123,7 +6051,7 @@
       <c r="M79" s="13"/>
       <c r="N79" s="7"/>
       <c r="O79" s="11"/>
-      <c r="P79" s="124">
+      <c r="P79" s="87">
         <f>IF(B79&gt;0,IF(B79&gt;[1]Admin!$N$11,[1]Admin!$G$7,[1]Admin!$G$5),[1]Admin!$G$5)</f>
         <v>100</v>
       </c>
@@ -6157,8 +6085,8 @@
       </c>
       <c r="AA79" s="21"/>
     </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A80" s="115"/>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A80" s="100"/>
       <c r="B80" s="41"/>
       <c r="C80" s="74"/>
       <c r="D80" s="45"/>
@@ -6185,7 +6113,7 @@
       <c r="M80" s="13"/>
       <c r="N80" s="7"/>
       <c r="O80" s="11"/>
-      <c r="P80" s="124">
+      <c r="P80" s="87">
         <f>IF(B80&gt;0,IF(B80&gt;[1]Admin!$N$11,[1]Admin!$G$7,[1]Admin!$G$5),[1]Admin!$G$5)</f>
         <v>100</v>
       </c>
@@ -6219,8 +6147,8 @@
       </c>
       <c r="AA80" s="21"/>
     </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A81" s="115"/>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A81" s="100"/>
       <c r="B81" s="41"/>
       <c r="C81" s="74"/>
       <c r="D81" s="45"/>
@@ -6247,7 +6175,7 @@
       <c r="M81" s="13"/>
       <c r="N81" s="7"/>
       <c r="O81" s="11"/>
-      <c r="P81" s="124">
+      <c r="P81" s="87">
         <f>IF(B81&gt;0,IF(B81&gt;[1]Admin!$N$11,[1]Admin!$G$7,[1]Admin!$G$5),[1]Admin!$G$5)</f>
         <v>100</v>
       </c>
@@ -6281,8 +6209,8 @@
       </c>
       <c r="AA81" s="21"/>
     </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A82" s="115"/>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A82" s="100"/>
       <c r="B82" s="41"/>
       <c r="C82" s="74"/>
       <c r="D82" s="45"/>
@@ -6309,7 +6237,7 @@
       <c r="M82" s="13"/>
       <c r="N82" s="7"/>
       <c r="O82" s="11"/>
-      <c r="P82" s="124">
+      <c r="P82" s="87">
         <f>IF(B82&gt;0,IF(B82&gt;[1]Admin!$N$11,[1]Admin!$G$7,[1]Admin!$G$5),[1]Admin!$G$5)</f>
         <v>100</v>
       </c>
@@ -6343,13 +6271,13 @@
       </c>
       <c r="AA82" s="21"/>
     </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A83" s="115"/>
-      <c r="B83" s="141" t="s">
+    <row r="83" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A83" s="100"/>
+      <c r="B83" s="130" t="s">
         <v>13</v>
       </c>
-      <c r="C83" s="142"/>
-      <c r="D83" s="143"/>
+      <c r="C83" s="131"/>
+      <c r="D83" s="132"/>
       <c r="E83" s="40">
         <f>SUM(E78:E82)</f>
         <v>0</v>
@@ -6419,8 +6347,8 @@
       </c>
       <c r="AA83" s="21"/>
     </row>
-    <row r="84" spans="1:27" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="115"/>
+    <row r="84" spans="1:27" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="100"/>
       <c r="B84" s="36"/>
       <c r="C84" s="75"/>
       <c r="D84" s="37"/>
@@ -6448,12 +6376,12 @@
       <c r="Z84" s="7"/>
       <c r="AA84" s="21"/>
     </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A85" s="115"/>
-      <c r="B85" s="140" t="s">
+    <row r="85" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A85" s="100"/>
+      <c r="B85" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="C85" s="140"/>
+      <c r="C85" s="129"/>
       <c r="D85" s="32"/>
       <c r="E85" s="7"/>
       <c r="F85" s="7"/>
@@ -6469,7 +6397,7 @@
       <c r="M85" s="13"/>
       <c r="N85" s="7"/>
       <c r="O85" s="11"/>
-      <c r="P85" s="124"/>
+      <c r="P85" s="87"/>
       <c r="Q85" s="11"/>
       <c r="R85" s="11"/>
       <c r="S85" s="11"/>
@@ -6482,8 +6410,8 @@
       <c r="Z85" s="11"/>
       <c r="AA85" s="21"/>
     </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A86" s="115"/>
+    <row r="86" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A86" s="100"/>
       <c r="B86" s="41"/>
       <c r="C86" s="74"/>
       <c r="D86" s="45"/>
@@ -6510,7 +6438,7 @@
       <c r="M86" s="13"/>
       <c r="N86" s="7"/>
       <c r="O86" s="11"/>
-      <c r="P86" s="124">
+      <c r="P86" s="87">
         <f>IF(B86&gt;0,IF(B86&gt;[1]Admin!$N$11,[1]Admin!$G$7,[1]Admin!$G$5),[1]Admin!$G$5)</f>
         <v>100</v>
       </c>
@@ -6544,8 +6472,8 @@
       </c>
       <c r="AA86" s="21"/>
     </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A87" s="115"/>
+    <row r="87" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A87" s="100"/>
       <c r="B87" s="41"/>
       <c r="C87" s="74"/>
       <c r="D87" s="45"/>
@@ -6572,7 +6500,7 @@
       <c r="M87" s="13"/>
       <c r="N87" s="7"/>
       <c r="O87" s="11"/>
-      <c r="P87" s="124">
+      <c r="P87" s="87">
         <f>IF(B87&gt;0,IF(B87&gt;[1]Admin!$N$11,[1]Admin!$G$7,[1]Admin!$G$5),[1]Admin!$G$5)</f>
         <v>100</v>
       </c>
@@ -6606,8 +6534,8 @@
       </c>
       <c r="AA87" s="21"/>
     </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A88" s="115"/>
+    <row r="88" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A88" s="100"/>
       <c r="B88" s="41"/>
       <c r="C88" s="74"/>
       <c r="D88" s="45"/>
@@ -6634,7 +6562,7 @@
       <c r="M88" s="13"/>
       <c r="N88" s="7"/>
       <c r="O88" s="11"/>
-      <c r="P88" s="124">
+      <c r="P88" s="87">
         <f>IF(B88&gt;0,IF(B88&gt;[1]Admin!$N$11,[1]Admin!$G$7,[1]Admin!$G$5),[1]Admin!$G$5)</f>
         <v>100</v>
       </c>
@@ -6668,8 +6596,8 @@
       </c>
       <c r="AA88" s="21"/>
     </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A89" s="115"/>
+    <row r="89" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A89" s="100"/>
       <c r="B89" s="41"/>
       <c r="C89" s="74"/>
       <c r="D89" s="45"/>
@@ -6696,7 +6624,7 @@
       <c r="M89" s="13"/>
       <c r="N89" s="7"/>
       <c r="O89" s="11"/>
-      <c r="P89" s="124">
+      <c r="P89" s="87">
         <f>IF(B89&gt;0,IF(B89&gt;[1]Admin!$N$11,[1]Admin!$G$7,[1]Admin!$G$5),[1]Admin!$G$5)</f>
         <v>100</v>
       </c>
@@ -6730,8 +6658,8 @@
       </c>
       <c r="AA89" s="21"/>
     </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A90" s="115"/>
+    <row r="90" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A90" s="100"/>
       <c r="B90" s="41"/>
       <c r="C90" s="74"/>
       <c r="D90" s="45"/>
@@ -6758,7 +6686,7 @@
       <c r="M90" s="13"/>
       <c r="N90" s="7"/>
       <c r="O90" s="11"/>
-      <c r="P90" s="124">
+      <c r="P90" s="87">
         <f>IF(B90&gt;0,IF(B90&gt;[1]Admin!$N$11,[1]Admin!$G$7,[1]Admin!$G$5),[1]Admin!$G$5)</f>
         <v>100</v>
       </c>
@@ -6792,8 +6720,8 @@
       </c>
       <c r="AA90" s="21"/>
     </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A91" s="115"/>
+    <row r="91" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A91" s="100"/>
       <c r="B91" s="41"/>
       <c r="C91" s="74"/>
       <c r="D91" s="45"/>
@@ -6820,7 +6748,7 @@
       <c r="M91" s="13"/>
       <c r="N91" s="7"/>
       <c r="O91" s="11"/>
-      <c r="P91" s="124">
+      <c r="P91" s="87">
         <f>IF(B91&gt;0,IF(B91&gt;[1]Admin!$N$11,[1]Admin!$G$7,[1]Admin!$G$5),[1]Admin!$G$5)</f>
         <v>100</v>
       </c>
@@ -6854,8 +6782,8 @@
       </c>
       <c r="AA91" s="21"/>
     </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A92" s="115"/>
+    <row r="92" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A92" s="100"/>
       <c r="B92" s="41"/>
       <c r="C92" s="74"/>
       <c r="D92" s="45"/>
@@ -6882,7 +6810,7 @@
       <c r="M92" s="13"/>
       <c r="N92" s="7"/>
       <c r="O92" s="11"/>
-      <c r="P92" s="124">
+      <c r="P92" s="87">
         <f>IF(B92&gt;0,IF(B92&gt;[1]Admin!$N$11,[1]Admin!$G$7,[1]Admin!$G$5),[1]Admin!$G$5)</f>
         <v>100</v>
       </c>
@@ -6916,8 +6844,8 @@
       </c>
       <c r="AA92" s="21"/>
     </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A93" s="115"/>
+    <row r="93" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A93" s="100"/>
       <c r="B93" s="41"/>
       <c r="C93" s="74"/>
       <c r="D93" s="45"/>
@@ -6944,7 +6872,7 @@
       <c r="M93" s="13"/>
       <c r="N93" s="7"/>
       <c r="O93" s="11"/>
-      <c r="P93" s="124">
+      <c r="P93" s="87">
         <f>IF(B93&gt;0,IF(B93&gt;[1]Admin!$N$11,[1]Admin!$G$7,[1]Admin!$G$5),[1]Admin!$G$5)</f>
         <v>100</v>
       </c>
@@ -6978,13 +6906,13 @@
       </c>
       <c r="AA93" s="21"/>
     </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A94" s="115"/>
-      <c r="B94" s="141" t="s">
+    <row r="94" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A94" s="100"/>
+      <c r="B94" s="130" t="s">
         <v>14</v>
       </c>
-      <c r="C94" s="142"/>
-      <c r="D94" s="143"/>
+      <c r="C94" s="131"/>
+      <c r="D94" s="132"/>
       <c r="E94" s="40">
         <f>SUM(E86:E93)</f>
         <v>0</v>
@@ -7054,8 +6982,8 @@
       </c>
       <c r="AA94" s="21"/>
     </row>
-    <row r="95" spans="1:27" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="115"/>
+    <row r="95" spans="1:27" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="100"/>
       <c r="B95" s="36"/>
       <c r="C95" s="75"/>
       <c r="D95" s="37"/>
@@ -7083,12 +7011,12 @@
       <c r="Z95" s="7"/>
       <c r="AA95" s="21"/>
     </row>
-    <row r="96" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="115"/>
-      <c r="B96" s="140" t="s">
-        <v>55</v>
-      </c>
-      <c r="C96" s="140"/>
+    <row r="96" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="100"/>
+      <c r="B96" s="129" t="s">
+        <v>53</v>
+      </c>
+      <c r="C96" s="129"/>
       <c r="D96" s="32"/>
       <c r="E96" s="7"/>
       <c r="F96" s="7"/>
@@ -7117,8 +7045,8 @@
       <c r="Z96" s="11"/>
       <c r="AA96" s="21"/>
     </row>
-    <row r="97" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A97" s="115"/>
+    <row r="97" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A97" s="100"/>
       <c r="B97" s="41"/>
       <c r="C97" s="74"/>
       <c r="D97" s="45"/>
@@ -7147,7 +7075,7 @@
       </c>
       <c r="N97" s="7"/>
       <c r="O97" s="11"/>
-      <c r="P97" s="124"/>
+      <c r="P97" s="87"/>
       <c r="Q97" s="11"/>
       <c r="R97" s="11" t="str">
         <f>IF(E97&gt;0,IF(E97&gt;[1]Admin!$E$11,[1]Admin!$G$11*(1-M97),E97*R$4/100)*(1-M97)," ")</f>
@@ -7178,8 +7106,8 @@
       </c>
       <c r="AA97" s="21"/>
     </row>
-    <row r="98" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A98" s="115"/>
+    <row r="98" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A98" s="100"/>
       <c r="B98" s="41"/>
       <c r="C98" s="74"/>
       <c r="D98" s="45"/>
@@ -7208,7 +7136,7 @@
       </c>
       <c r="N98" s="7"/>
       <c r="O98" s="11"/>
-      <c r="P98" s="124"/>
+      <c r="P98" s="87"/>
       <c r="Q98" s="11"/>
       <c r="R98" s="11" t="str">
         <f>IF(E98&gt;0,IF(E98&gt;[1]Admin!$E$11,[1]Admin!$G$11*(1-M98),E98*R$4/100)*(1-M98)," ")</f>
@@ -7239,8 +7167,8 @@
       </c>
       <c r="AA98" s="21"/>
     </row>
-    <row r="99" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A99" s="115"/>
+    <row r="99" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A99" s="100"/>
       <c r="B99" s="41"/>
       <c r="C99" s="74"/>
       <c r="D99" s="45"/>
@@ -7269,7 +7197,7 @@
       </c>
       <c r="N99" s="7"/>
       <c r="O99" s="11"/>
-      <c r="P99" s="124"/>
+      <c r="P99" s="87"/>
       <c r="Q99" s="11"/>
       <c r="R99" s="11" t="str">
         <f>IF(E99&gt;0,IF(E99&gt;[1]Admin!$E$11,[1]Admin!$G$11*(1-M99),E99*R$4/100)*(1-M99)," ")</f>
@@ -7300,8 +7228,8 @@
       </c>
       <c r="AA99" s="21"/>
     </row>
-    <row r="100" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A100" s="115"/>
+    <row r="100" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A100" s="100"/>
       <c r="B100" s="41"/>
       <c r="C100" s="74"/>
       <c r="D100" s="45"/>
@@ -7330,7 +7258,7 @@
       </c>
       <c r="N100" s="7"/>
       <c r="O100" s="11"/>
-      <c r="P100" s="124"/>
+      <c r="P100" s="87"/>
       <c r="Q100" s="11"/>
       <c r="R100" s="11" t="str">
         <f>IF(E100&gt;0,IF(E100&gt;[1]Admin!$E$11,[1]Admin!$G$11*(1-M100),E100*R$4/100)*(1-M100)," ")</f>
@@ -7361,8 +7289,8 @@
       </c>
       <c r="AA100" s="21"/>
     </row>
-    <row r="101" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A101" s="115"/>
+    <row r="101" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A101" s="100"/>
       <c r="B101" s="41"/>
       <c r="C101" s="74"/>
       <c r="D101" s="45"/>
@@ -7391,7 +7319,7 @@
       </c>
       <c r="N101" s="7"/>
       <c r="O101" s="11"/>
-      <c r="P101" s="124"/>
+      <c r="P101" s="87"/>
       <c r="Q101" s="11"/>
       <c r="R101" s="11" t="str">
         <f>IF(E101&gt;0,IF(E101&gt;[1]Admin!$E$11,[1]Admin!$G$11*(1-M101),E101*R$4/100)*(1-M101)," ")</f>
@@ -7422,12 +7350,12 @@
       </c>
       <c r="AA101" s="21"/>
     </row>
-    <row r="102" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A102" s="115"/>
-      <c r="B102" s="140" t="s">
-        <v>56</v>
-      </c>
-      <c r="C102" s="140"/>
+    <row r="102" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A102" s="100"/>
+      <c r="B102" s="129" t="s">
+        <v>54</v>
+      </c>
+      <c r="C102" s="129"/>
       <c r="D102" s="32"/>
       <c r="E102" s="7"/>
       <c r="F102" s="7"/>
@@ -7440,7 +7368,7 @@
       <c r="M102" s="13"/>
       <c r="N102" s="7"/>
       <c r="O102" s="11"/>
-      <c r="P102" s="124"/>
+      <c r="P102" s="87"/>
       <c r="Q102" s="11"/>
       <c r="R102" s="11"/>
       <c r="S102" s="11"/>
@@ -7453,8 +7381,8 @@
       <c r="Z102" s="11"/>
       <c r="AA102" s="21"/>
     </row>
-    <row r="103" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A103" s="115"/>
+    <row r="103" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A103" s="100"/>
       <c r="B103" s="41"/>
       <c r="C103" s="74"/>
       <c r="D103" s="45"/>
@@ -7483,7 +7411,7 @@
       </c>
       <c r="N103" s="7"/>
       <c r="O103" s="11"/>
-      <c r="P103" s="124">
+      <c r="P103" s="87">
         <f>IF(B103&gt;0,IF(B103&gt;[1]Admin!$N$11,[1]Admin!$G$7,[1]Admin!$G$5),[1]Admin!$G$5)</f>
         <v>100</v>
       </c>
@@ -7517,8 +7445,8 @@
       </c>
       <c r="AA103" s="21"/>
     </row>
-    <row r="104" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A104" s="115"/>
+    <row r="104" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A104" s="100"/>
       <c r="B104" s="41"/>
       <c r="C104" s="74"/>
       <c r="D104" s="45"/>
@@ -7547,7 +7475,7 @@
       </c>
       <c r="N104" s="7"/>
       <c r="O104" s="11"/>
-      <c r="P104" s="124">
+      <c r="P104" s="87">
         <f>IF(B104&gt;0,IF(B104&gt;[1]Admin!$N$11,[1]Admin!$G$7,[1]Admin!$G$5),[1]Admin!$G$5)</f>
         <v>100</v>
       </c>
@@ -7581,8 +7509,8 @@
       </c>
       <c r="AA104" s="21"/>
     </row>
-    <row r="105" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A105" s="115"/>
+    <row r="105" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A105" s="100"/>
       <c r="B105" s="41"/>
       <c r="C105" s="74"/>
       <c r="D105" s="45"/>
@@ -7611,7 +7539,7 @@
       </c>
       <c r="N105" s="7"/>
       <c r="O105" s="11"/>
-      <c r="P105" s="124">
+      <c r="P105" s="87">
         <f>IF(B105&gt;0,IF(B105&gt;[1]Admin!$N$11,[1]Admin!$G$7,[1]Admin!$G$5),[1]Admin!$G$5)</f>
         <v>100</v>
       </c>
@@ -7645,8 +7573,8 @@
       </c>
       <c r="AA105" s="21"/>
     </row>
-    <row r="106" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A106" s="115"/>
+    <row r="106" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A106" s="100"/>
       <c r="B106" s="41"/>
       <c r="C106" s="74"/>
       <c r="D106" s="45"/>
@@ -7675,7 +7603,7 @@
       </c>
       <c r="N106" s="7"/>
       <c r="O106" s="11"/>
-      <c r="P106" s="124">
+      <c r="P106" s="87">
         <f>IF(B106&gt;0,IF(B106&gt;[1]Admin!$N$11,[1]Admin!$G$7,[1]Admin!$G$5),[1]Admin!$G$5)</f>
         <v>100</v>
       </c>
@@ -7709,8 +7637,8 @@
       </c>
       <c r="AA106" s="21"/>
     </row>
-    <row r="107" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A107" s="115"/>
+    <row r="107" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A107" s="100"/>
       <c r="B107" s="41"/>
       <c r="C107" s="74"/>
       <c r="D107" s="45"/>
@@ -7739,7 +7667,7 @@
       </c>
       <c r="N107" s="7"/>
       <c r="O107" s="11"/>
-      <c r="P107" s="124">
+      <c r="P107" s="87">
         <f>IF(B107&gt;0,IF(B107&gt;[1]Admin!$N$11,[1]Admin!$G$7,[1]Admin!$G$5),[1]Admin!$G$5)</f>
         <v>100</v>
       </c>
@@ -7773,13 +7701,13 @@
       </c>
       <c r="AA107" s="21"/>
     </row>
-    <row r="108" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A108" s="115"/>
-      <c r="B108" s="141" t="s">
+    <row r="108" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A108" s="100"/>
+      <c r="B108" s="130" t="s">
         <v>15</v>
       </c>
-      <c r="C108" s="142"/>
-      <c r="D108" s="143"/>
+      <c r="C108" s="131"/>
+      <c r="D108" s="132"/>
       <c r="E108" s="40">
         <f>SUM(E97:E107)</f>
         <v>0</v>
@@ -7849,8 +7777,8 @@
       </c>
       <c r="AA108" s="21"/>
     </row>
-    <row r="109" spans="1:27" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="115"/>
+    <row r="109" spans="1:27" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="100"/>
       <c r="B109" s="12"/>
       <c r="C109" s="76"/>
       <c r="D109" s="32"/>
@@ -7865,7 +7793,7 @@
       <c r="M109" s="13"/>
       <c r="N109" s="7"/>
       <c r="O109" s="11"/>
-      <c r="P109" s="124"/>
+      <c r="P109" s="87"/>
       <c r="Q109" s="11"/>
       <c r="R109" s="11"/>
       <c r="S109" s="11"/>
@@ -7878,15 +7806,15 @@
       <c r="Z109" s="11"/>
       <c r="AA109" s="21"/>
     </row>
-    <row r="110" spans="1:27" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="115"/>
-      <c r="B110" s="164" t="s">
-        <v>62</v>
-      </c>
-      <c r="C110" s="165"/>
-      <c r="D110" s="130">
+    <row r="110" spans="1:27" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="100"/>
+      <c r="B110" s="120" t="s">
+        <v>60</v>
+      </c>
+      <c r="C110" s="121"/>
+      <c r="D110" s="112">
         <f>F59</f>
-        <v>45046</v>
+        <v>45412</v>
       </c>
       <c r="E110" s="18">
         <f>E64+E75+E83+E94+E108</f>
@@ -7957,8 +7885,8 @@
       </c>
       <c r="AA110" s="21"/>
     </row>
-    <row r="111" spans="1:27" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="116"/>
+    <row r="111" spans="1:27" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="101"/>
       <c r="B111" s="23"/>
       <c r="C111" s="78"/>
       <c r="D111" s="34"/>
@@ -7973,7 +7901,7 @@
       <c r="M111" s="25"/>
       <c r="N111" s="24"/>
       <c r="O111" s="26"/>
-      <c r="P111" s="126"/>
+      <c r="P111" s="109"/>
       <c r="Q111" s="26"/>
       <c r="R111" s="26"/>
       <c r="S111" s="26"/>
@@ -7988,30 +7916,34 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="Z2:Z4"/>
+    <mergeCell ref="U1:U4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="L1:L4"/>
+    <mergeCell ref="Q2:Q4"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="N1:N4"/>
+    <mergeCell ref="P1:P3"/>
+    <mergeCell ref="Y2:Y4"/>
+    <mergeCell ref="T1:T4"/>
+    <mergeCell ref="X2:X4"/>
+    <mergeCell ref="V2:V4"/>
+    <mergeCell ref="W2:W4"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B30:D30"/>
     <mergeCell ref="A1:A4"/>
-    <mergeCell ref="M1:M4"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
     <mergeCell ref="B108:D108"/>
     <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B94:D94"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="N1:N4"/>
-    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="B13:C13"/>
     <mergeCell ref="B77:C77"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="B22:D22"/>
@@ -8019,29 +7951,25 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="Z2:Z4"/>
-    <mergeCell ref="U1:U4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="P1:P3"/>
-    <mergeCell ref="Y2:Y4"/>
-    <mergeCell ref="T1:T4"/>
-    <mergeCell ref="X2:X4"/>
-    <mergeCell ref="V2:V4"/>
-    <mergeCell ref="W2:W4"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="L1:L4"/>
-    <mergeCell ref="Q2:Q4"/>
     <mergeCell ref="B59:C59"/>
     <mergeCell ref="B66:C66"/>
     <mergeCell ref="B75:D75"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="M1:M4"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B94:D94"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B60:C60"/>
     <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="B49:C49"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -8065,44 +7993,44 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:X17"/>
+  <dimension ref="A1:X16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="M4" sqref="M4:N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" style="119" customWidth="1"/>
-    <col min="2" max="2" width="27.140625" style="119" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="119"/>
-    <col min="4" max="4" width="3.7109375" style="119" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="119" customWidth="1"/>
-    <col min="6" max="6" width="5.42578125" style="119" customWidth="1"/>
-    <col min="7" max="9" width="9.140625" style="119"/>
-    <col min="10" max="10" width="6.5703125" style="119" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" style="119" customWidth="1"/>
-    <col min="12" max="12" width="2.7109375" style="119" customWidth="1"/>
-    <col min="13" max="14" width="9.7109375" style="119" customWidth="1"/>
-    <col min="15" max="15" width="1.5703125" style="119" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="119"/>
+    <col min="1" max="1" width="1.6640625" style="103" customWidth="1"/>
+    <col min="2" max="2" width="27.1640625" style="103" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" style="103"/>
+    <col min="4" max="4" width="3.6640625" style="103" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="103" customWidth="1"/>
+    <col min="6" max="6" width="5.5" style="103" customWidth="1"/>
+    <col min="7" max="9" width="9.1640625" style="103"/>
+    <col min="10" max="10" width="6.5" style="103" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" style="103" customWidth="1"/>
+    <col min="12" max="12" width="2.6640625" style="103" customWidth="1"/>
+    <col min="13" max="14" width="9.6640625" style="103" customWidth="1"/>
+    <col min="15" max="15" width="1.5" style="103" customWidth="1"/>
+    <col min="16" max="16384" width="9.1640625" style="103"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="5" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="184"/>
-      <c r="B1" s="185"/>
-      <c r="C1" s="185"/>
-      <c r="D1" s="185"/>
-      <c r="E1" s="185"/>
-      <c r="F1" s="185"/>
-      <c r="G1" s="185"/>
-      <c r="H1" s="185"/>
-      <c r="I1" s="185"/>
-      <c r="J1" s="185"/>
-      <c r="K1" s="185"/>
-      <c r="L1" s="185"/>
-      <c r="M1" s="185"/>
-      <c r="N1" s="185"/>
+    <row r="1" spans="1:24" s="5" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="168"/>
+      <c r="B1" s="169"/>
+      <c r="C1" s="169"/>
+      <c r="D1" s="169"/>
+      <c r="E1" s="169"/>
+      <c r="F1" s="169"/>
+      <c r="G1" s="169"/>
+      <c r="H1" s="169"/>
+      <c r="I1" s="169"/>
+      <c r="J1" s="169"/>
+      <c r="K1" s="169"/>
+      <c r="L1" s="169"/>
+      <c r="M1" s="169"/>
+      <c r="N1" s="169"/>
       <c r="O1" s="70"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
@@ -8114,17 +8042,17 @@
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
     </row>
-    <row r="2" spans="1:24" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="63"/>
       <c r="B2" s="46"/>
       <c r="C2" s="47"/>
       <c r="D2" s="48"/>
-      <c r="E2" s="192" t="s">
+      <c r="E2" s="176" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="193"/>
-      <c r="G2" s="194"/>
-      <c r="H2" s="195"/>
+      <c r="F2" s="177"/>
+      <c r="G2" s="178"/>
+      <c r="H2" s="179"/>
       <c r="I2" s="49"/>
       <c r="J2" s="49"/>
       <c r="K2" s="49"/>
@@ -8142,15 +8070,15 @@
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
     </row>
-    <row r="3" spans="1:24" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="63"/>
       <c r="B3" s="46"/>
       <c r="C3" s="47"/>
       <c r="D3" s="48"/>
       <c r="E3" s="51"/>
       <c r="F3" s="51"/>
-      <c r="G3" s="117"/>
-      <c r="H3" s="117"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
       <c r="I3" s="49"/>
       <c r="J3" s="49"/>
       <c r="K3" s="49"/>
@@ -8168,31 +8096,31 @@
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
     </row>
-    <row r="4" spans="1:24" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="63"/>
-      <c r="B4" s="121" t="s">
-        <v>52</v>
+      <c r="B4" s="105" t="s">
+        <v>51</v>
       </c>
       <c r="C4" s="47"/>
       <c r="D4" s="48"/>
-      <c r="E4" s="122" t="s">
+      <c r="E4" s="106" t="s">
         <v>3</v>
       </c>
       <c r="F4" s="49"/>
-      <c r="G4" s="181" t="s">
-        <v>53</v>
-      </c>
-      <c r="H4" s="182"/>
-      <c r="I4" s="183"/>
+      <c r="G4" s="165" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="166"/>
+      <c r="I4" s="167"/>
       <c r="J4" s="49"/>
-      <c r="K4" s="122" t="s">
+      <c r="K4" s="106" t="s">
         <v>26</v>
       </c>
       <c r="L4" s="49"/>
-      <c r="M4" s="178" t="s">
-        <v>54</v>
-      </c>
-      <c r="N4" s="179"/>
+      <c r="M4" s="162" t="s">
+        <v>65</v>
+      </c>
+      <c r="N4" s="163"/>
       <c r="O4" s="71"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
@@ -8204,7 +8132,7 @@
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
     </row>
-    <row r="5" spans="1:24" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="63"/>
       <c r="B5" s="46" t="s">
         <v>18</v>
@@ -8221,8 +8149,8 @@
       <c r="J5" s="49"/>
       <c r="K5" s="49"/>
       <c r="L5" s="49"/>
-      <c r="M5" s="179"/>
-      <c r="N5" s="179"/>
+      <c r="M5" s="163"/>
+      <c r="N5" s="163"/>
       <c r="O5" s="71"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
@@ -8234,31 +8162,31 @@
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
     </row>
-    <row r="6" spans="1:24" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="63"/>
-      <c r="B6" s="175" t="s">
+      <c r="B6" s="157" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="176"/>
-      <c r="D6" s="177"/>
+      <c r="C6" s="158"/>
+      <c r="D6" s="159"/>
       <c r="E6" s="52">
         <f>Schedule!E64</f>
         <v>0</v>
       </c>
       <c r="F6" s="49"/>
-      <c r="G6" s="175" t="s">
+      <c r="G6" s="157" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="176"/>
-      <c r="I6" s="176"/>
-      <c r="J6" s="186"/>
+      <c r="H6" s="158"/>
+      <c r="I6" s="158"/>
+      <c r="J6" s="170"/>
       <c r="K6" s="52">
         <f>Schedule!V11+Schedule!V64</f>
         <v>0</v>
       </c>
       <c r="L6" s="49"/>
-      <c r="M6" s="179"/>
-      <c r="N6" s="179"/>
+      <c r="M6" s="163"/>
+      <c r="N6" s="163"/>
       <c r="O6" s="71"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
@@ -8270,31 +8198,31 @@
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
     </row>
-    <row r="7" spans="1:24" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="63"/>
-      <c r="B7" s="175" t="s">
+      <c r="B7" s="157" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="176"/>
-      <c r="D7" s="177"/>
+      <c r="C7" s="158"/>
+      <c r="D7" s="159"/>
       <c r="E7" s="52">
         <f>Schedule!E75</f>
         <v>0</v>
       </c>
       <c r="F7" s="49"/>
-      <c r="G7" s="175" t="s">
+      <c r="G7" s="157" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="176"/>
-      <c r="I7" s="176"/>
-      <c r="J7" s="186"/>
+      <c r="H7" s="158"/>
+      <c r="I7" s="158"/>
+      <c r="J7" s="170"/>
       <c r="K7" s="52">
         <f>Schedule!V22+Schedule!V75</f>
         <v>0</v>
       </c>
       <c r="L7" s="49"/>
-      <c r="M7" s="179"/>
-      <c r="N7" s="179"/>
+      <c r="M7" s="163"/>
+      <c r="N7" s="163"/>
       <c r="O7" s="71"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
@@ -8306,31 +8234,31 @@
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="63"/>
-      <c r="B8" s="175" t="s">
+      <c r="B8" s="157" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="176"/>
-      <c r="D8" s="177"/>
+      <c r="C8" s="158"/>
+      <c r="D8" s="159"/>
       <c r="E8" s="52">
         <f>Schedule!E83</f>
         <v>0</v>
       </c>
       <c r="F8" s="49"/>
-      <c r="G8" s="175" t="s">
+      <c r="G8" s="157" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="176"/>
-      <c r="I8" s="176"/>
-      <c r="J8" s="186"/>
+      <c r="H8" s="158"/>
+      <c r="I8" s="158"/>
+      <c r="J8" s="170"/>
       <c r="K8" s="52">
         <f>Schedule!V30+Schedule!V83</f>
         <v>0</v>
       </c>
       <c r="L8" s="49"/>
-      <c r="M8" s="179"/>
-      <c r="N8" s="179"/>
+      <c r="M8" s="163"/>
+      <c r="N8" s="163"/>
       <c r="O8" s="71"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
@@ -8342,31 +8270,31 @@
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="63"/>
-      <c r="B9" s="175" t="s">
+      <c r="B9" s="157" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="176"/>
-      <c r="D9" s="177"/>
+      <c r="C9" s="158"/>
+      <c r="D9" s="159"/>
       <c r="E9" s="52">
         <f>Schedule!E94</f>
         <v>0</v>
       </c>
       <c r="F9" s="49"/>
-      <c r="G9" s="175" t="s">
+      <c r="G9" s="157" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="176"/>
-      <c r="I9" s="176"/>
-      <c r="J9" s="186"/>
+      <c r="H9" s="158"/>
+      <c r="I9" s="158"/>
+      <c r="J9" s="170"/>
       <c r="K9" s="52">
         <f>Schedule!V41+Schedule!V94</f>
         <v>0</v>
       </c>
       <c r="L9" s="49"/>
-      <c r="M9" s="179"/>
-      <c r="N9" s="179"/>
+      <c r="M9" s="163"/>
+      <c r="N9" s="163"/>
       <c r="O9" s="71"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
@@ -8378,31 +8306,31 @@
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" s="5" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" s="5" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="63"/>
-      <c r="B10" s="175" t="s">
+      <c r="B10" s="157" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="176"/>
-      <c r="D10" s="177"/>
+      <c r="C10" s="158"/>
+      <c r="D10" s="159"/>
       <c r="E10" s="52">
         <f>Schedule!E108</f>
         <v>0</v>
       </c>
       <c r="F10" s="49"/>
-      <c r="G10" s="175" t="s">
+      <c r="G10" s="157" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="176"/>
-      <c r="I10" s="176"/>
-      <c r="J10" s="186"/>
+      <c r="H10" s="158"/>
+      <c r="I10" s="158"/>
+      <c r="J10" s="170"/>
       <c r="K10" s="52">
         <f>Schedule!V55+Schedule!V108</f>
         <v>0</v>
       </c>
       <c r="L10" s="49"/>
-      <c r="M10" s="179"/>
-      <c r="N10" s="179"/>
+      <c r="M10" s="163"/>
+      <c r="N10" s="163"/>
       <c r="O10" s="71"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
@@ -8414,31 +8342,31 @@
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:24" s="5" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" s="5" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="63"/>
-      <c r="B11" s="196" t="s">
+      <c r="B11" s="160" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="196"/>
-      <c r="D11" s="197"/>
+      <c r="C11" s="160"/>
+      <c r="D11" s="161"/>
       <c r="E11" s="53">
         <f>SUM(E6:E10)</f>
         <v>0</v>
       </c>
       <c r="F11" s="49"/>
-      <c r="G11" s="190" t="s">
+      <c r="G11" s="174" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="190"/>
-      <c r="I11" s="190"/>
-      <c r="J11" s="191"/>
+      <c r="H11" s="174"/>
+      <c r="I11" s="174"/>
+      <c r="J11" s="175"/>
       <c r="K11" s="53">
         <f>SUM(K6:K10)</f>
         <v>0</v>
       </c>
       <c r="L11" s="49"/>
-      <c r="M11" s="179"/>
-      <c r="N11" s="179"/>
+      <c r="M11" s="163"/>
+      <c r="N11" s="163"/>
       <c r="O11" s="71"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
@@ -8450,7 +8378,7 @@
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:24" s="5" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" s="5" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="63"/>
       <c r="B12" s="46"/>
       <c r="C12" s="47"/>
@@ -8463,8 +8391,8 @@
       <c r="J12" s="49"/>
       <c r="K12" s="49"/>
       <c r="L12" s="49"/>
-      <c r="M12" s="179"/>
-      <c r="N12" s="179"/>
+      <c r="M12" s="163"/>
+      <c r="N12" s="163"/>
       <c r="O12" s="71"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
@@ -8476,31 +8404,31 @@
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:24" s="5" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" s="5" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="63"/>
-      <c r="B13" s="196" t="s">
+      <c r="B13" s="160" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="196"/>
-      <c r="D13" s="197"/>
-      <c r="E13" s="53">
-        <f>[2]Apr23!$AI$2</f>
-        <v>0</v>
+      <c r="C13" s="160"/>
+      <c r="D13" s="161"/>
+      <c r="E13" s="53" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F13" s="49"/>
-      <c r="G13" s="190" t="s">
+      <c r="G13" s="174" t="s">
         <v>27</v>
       </c>
-      <c r="H13" s="190"/>
-      <c r="I13" s="190"/>
-      <c r="J13" s="191"/>
-      <c r="K13" s="53">
-        <f>[3]Apr23!$U$2</f>
-        <v>0</v>
+      <c r="H13" s="174"/>
+      <c r="I13" s="174"/>
+      <c r="J13" s="175"/>
+      <c r="K13" s="53" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="L13" s="49"/>
-      <c r="M13" s="180"/>
-      <c r="N13" s="180"/>
+      <c r="M13" s="164"/>
+      <c r="N13" s="164"/>
       <c r="O13" s="71"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
@@ -8512,7 +8440,7 @@
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:24" s="5" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" s="5" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="63"/>
       <c r="B14" s="46"/>
       <c r="C14" s="47"/>
@@ -8525,8 +8453,8 @@
       <c r="J14" s="49"/>
       <c r="K14" s="49"/>
       <c r="L14" s="49"/>
-      <c r="M14" s="180"/>
-      <c r="N14" s="180"/>
+      <c r="M14" s="164"/>
+      <c r="N14" s="164"/>
       <c r="O14" s="71"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
@@ -8538,33 +8466,33 @@
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
     </row>
-    <row r="15" spans="1:24" s="5" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" s="5" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="63"/>
-      <c r="B15" s="187" t="str">
+      <c r="B15" s="171" t="e">
         <f>IF(E15&gt;0,"Purchases exceed Assets listed on Schedule",IF(E15&lt;0,"Assets listed on Schedule exceed Purchase values","Purchases reconcile with Fixed asset Schedule"))</f>
-        <v>Purchases reconcile with Fixed asset Schedule</v>
-      </c>
-      <c r="C15" s="188"/>
-      <c r="D15" s="189"/>
-      <c r="E15" s="120">
+        <v>#REF!</v>
+      </c>
+      <c r="C15" s="172"/>
+      <c r="D15" s="173"/>
+      <c r="E15" s="104" t="e">
         <f>E13-E11</f>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
       <c r="F15" s="49"/>
-      <c r="G15" s="187" t="str">
+      <c r="G15" s="171" t="e">
         <f>IF(K15&gt;0,"Sales exceed Assets listed on Schedule",IF(K15&lt;0,"Assets listed on Schedule exceed Sales values","Sales reconcile with Fixed asset Schedule"))</f>
-        <v>Sales reconcile with Fixed asset Schedule</v>
-      </c>
-      <c r="H15" s="188"/>
-      <c r="I15" s="188"/>
-      <c r="J15" s="189"/>
-      <c r="K15" s="120">
+        <v>#REF!</v>
+      </c>
+      <c r="H15" s="172"/>
+      <c r="I15" s="172"/>
+      <c r="J15" s="173"/>
+      <c r="K15" s="104" t="e">
         <f>K13-K11</f>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
       <c r="L15" s="49"/>
-      <c r="M15" s="180"/>
-      <c r="N15" s="180"/>
+      <c r="M15" s="164"/>
+      <c r="N15" s="164"/>
       <c r="O15" s="71"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
@@ -8576,7 +8504,7 @@
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
     </row>
-    <row r="16" spans="1:24" s="5" customFormat="1" ht="9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" s="5" customFormat="1" ht="9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="64"/>
       <c r="B16" s="65"/>
       <c r="C16" s="66"/>
@@ -8602,18 +8530,8 @@
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
     </row>
-    <row r="17" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O17" s="118"/>
-      <c r="P17" s="118"/>
-    </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
     <mergeCell ref="M4:N15"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="A1:N1"/>
@@ -8628,6 +8546,12 @@
     <mergeCell ref="G11:J11"/>
     <mergeCell ref="E2:H2"/>
     <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -8647,1076 +8571,1086 @@
   <dimension ref="A1:M54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D2"/>
+      <selection activeCell="D31" sqref="D31:D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="1.42578125" style="82" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="98" customWidth="1"/>
-    <col min="3" max="4" width="18.7109375" style="106" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="82" customWidth="1"/>
-    <col min="6" max="7" width="8.7109375" style="82" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" style="90" customWidth="1"/>
-    <col min="9" max="11" width="8.7109375" style="88" customWidth="1"/>
-    <col min="12" max="12" width="18.7109375" style="106" customWidth="1"/>
-    <col min="13" max="13" width="1.42578125" style="82" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="82"/>
+    <col min="1" max="1" width="1.5" style="82" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="4" customWidth="1"/>
+    <col min="3" max="4" width="18.6640625" style="30" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" style="82" customWidth="1"/>
+    <col min="6" max="7" width="8.6640625" style="82" customWidth="1"/>
+    <col min="8" max="8" width="6.6640625" style="88" customWidth="1"/>
+    <col min="9" max="11" width="8.6640625" style="86" customWidth="1"/>
+    <col min="12" max="12" width="18.6640625" style="30" customWidth="1"/>
+    <col min="13" max="13" width="1.5" style="82" customWidth="1"/>
+    <col min="14" max="16384" width="9.1640625" style="82"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="92"/>
-      <c r="B1" s="97"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="105"/>
-      <c r="M1" s="92"/>
-    </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="92"/>
+    <row r="1" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="90"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="90"/>
+    </row>
+    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="90"/>
       <c r="B2" s="80"/>
-      <c r="C2" s="203" t="s">
+      <c r="C2" s="184" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="185"/>
+      <c r="E2" s="83">
+        <f>SUM(E8:E26)</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="81"/>
+      <c r="G2" s="180" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="204"/>
-      <c r="E2" s="113">
-        <f>SUM(E8:E26)</f>
-        <v>0</v>
-      </c>
-      <c r="F2" s="87"/>
-      <c r="G2" s="201" t="s">
-        <v>49</v>
-      </c>
-      <c r="H2" s="202"/>
-      <c r="I2" s="202"/>
-      <c r="J2" s="202"/>
-      <c r="K2" s="202"/>
-      <c r="L2" s="89"/>
-      <c r="M2" s="92"/>
-    </row>
-    <row r="3" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="92"/>
-      <c r="B3" s="101" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="103"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="202"/>
-      <c r="H3" s="202"/>
-      <c r="I3" s="202"/>
-      <c r="J3" s="202"/>
-      <c r="K3" s="202"/>
-      <c r="L3" s="89"/>
-      <c r="M3" s="92"/>
-    </row>
-    <row r="4" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="112"/>
-      <c r="B4" s="95"/>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
+      <c r="H2" s="181"/>
+      <c r="I2" s="181"/>
+      <c r="J2" s="181"/>
+      <c r="K2" s="181"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="90"/>
+    </row>
+    <row r="3" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="90"/>
+      <c r="B3" s="94" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="31"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="181"/>
+      <c r="H3" s="181"/>
+      <c r="I3" s="181"/>
+      <c r="J3" s="181"/>
+      <c r="K3" s="181"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="90"/>
+    </row>
+    <row r="4" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="90"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
       <c r="E4" s="80"/>
       <c r="F4" s="80"/>
       <c r="G4" s="80"/>
-      <c r="H4" s="89"/>
+      <c r="H4" s="87"/>
       <c r="I4" s="81"/>
       <c r="J4" s="81"/>
       <c r="K4" s="81"/>
-      <c r="L4" s="107"/>
-      <c r="M4" s="92"/>
-    </row>
-    <row r="5" spans="1:13" s="86" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="109"/>
-      <c r="B5" s="146" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="149" t="s">
+      <c r="L4" s="96"/>
+      <c r="M4" s="90"/>
+    </row>
+    <row r="5" spans="1:13" s="85" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="93"/>
+      <c r="B5" s="138" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="148" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="149" t="s">
+      <c r="D5" s="148" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="182" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="182" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="182" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="199" t="s">
+      <c r="H5" s="148" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="182" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" s="183"/>
+      <c r="K5" s="183"/>
+      <c r="L5" s="148" t="s">
         <v>45</v>
       </c>
-      <c r="F5" s="199" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" s="199" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="149" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" s="199" t="s">
-        <v>47</v>
-      </c>
-      <c r="J5" s="200"/>
-      <c r="K5" s="200"/>
-      <c r="L5" s="149" t="s">
-        <v>46</v>
-      </c>
-      <c r="M5" s="100"/>
-    </row>
-    <row r="6" spans="1:13" s="86" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="109"/>
-      <c r="B6" s="198"/>
-      <c r="C6" s="198"/>
-      <c r="D6" s="198"/>
-      <c r="E6" s="198"/>
-      <c r="F6" s="198"/>
-      <c r="G6" s="198"/>
-      <c r="H6" s="198"/>
-      <c r="I6" s="85" t="s">
+      <c r="M5" s="93"/>
+    </row>
+    <row r="6" spans="1:13" s="85" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="93"/>
+      <c r="B6" s="186"/>
+      <c r="C6" s="186"/>
+      <c r="D6" s="186"/>
+      <c r="E6" s="186"/>
+      <c r="F6" s="186"/>
+      <c r="G6" s="186"/>
+      <c r="H6" s="186"/>
+      <c r="I6" s="84" t="s">
         <v>34</v>
       </c>
-      <c r="J6" s="85" t="s">
-        <v>42</v>
-      </c>
-      <c r="K6" s="85" t="s">
+      <c r="J6" s="84" t="s">
+        <v>41</v>
+      </c>
+      <c r="K6" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="L6" s="198"/>
-      <c r="M6" s="100"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="112"/>
-      <c r="B7" s="95"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
+      <c r="L6" s="186"/>
+      <c r="M6" s="93"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A7" s="90"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
       <c r="E7" s="80"/>
       <c r="F7" s="80"/>
       <c r="G7" s="80"/>
-      <c r="H7" s="89"/>
+      <c r="H7" s="87"/>
       <c r="I7" s="81"/>
       <c r="J7" s="81"/>
       <c r="K7" s="81"/>
-      <c r="L7" s="103"/>
-      <c r="M7" s="92"/>
-    </row>
-    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="92"/>
-      <c r="B8" s="96"/>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="84"/>
-      <c r="H8" s="91"/>
-      <c r="I8" s="87" t="str">
+      <c r="L7" s="31"/>
+      <c r="M7" s="90"/>
+    </row>
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="90"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="83"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="89"/>
+      <c r="I8" s="81" t="str">
         <f>IF(E8&gt;0,(E8+F8+G8)/H8," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="J8" s="87" t="str">
+      <c r="J8" s="81" t="str">
         <f>IF(H8&gt;0,I8-K8," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K8" s="87" t="str">
+      <c r="K8" s="81" t="str">
         <f>IF(H8&gt;0,G8/H8," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L8" s="104"/>
-      <c r="M8" s="92"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="92"/>
-      <c r="B9" s="95"/>
-      <c r="C9" s="103"/>
-      <c r="D9" s="103"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="90"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A9" s="90"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
       <c r="E9" s="80"/>
       <c r="F9" s="80"/>
       <c r="G9" s="80"/>
-      <c r="H9" s="89"/>
-      <c r="I9" s="87"/>
-      <c r="J9" s="87"/>
-      <c r="K9" s="87"/>
-      <c r="L9" s="103"/>
-      <c r="M9" s="92"/>
-    </row>
-    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="92"/>
-      <c r="B10" s="96"/>
-      <c r="C10" s="104"/>
-      <c r="D10" s="104"/>
-      <c r="E10" s="84"/>
-      <c r="F10" s="84"/>
-      <c r="G10" s="84"/>
-      <c r="H10" s="91"/>
-      <c r="I10" s="87" t="str">
+      <c r="H9" s="87"/>
+      <c r="I9" s="81"/>
+      <c r="J9" s="81"/>
+      <c r="K9" s="81"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="90"/>
+    </row>
+    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="90"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="83"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="89"/>
+      <c r="I10" s="81" t="str">
         <f>IF(H10&gt;0,#REF!/H10," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="J10" s="87" t="str">
+      <c r="J10" s="81" t="str">
         <f>IF(H10&gt;0,I10-K10," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K10" s="87" t="str">
+      <c r="K10" s="81" t="str">
         <f>IF(H10&gt;0,G10/H10," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L10" s="104"/>
-      <c r="M10" s="92"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="92"/>
-      <c r="B11" s="95"/>
-      <c r="C11" s="103"/>
-      <c r="D11" s="103"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="90"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A11" s="90"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
       <c r="E11" s="80"/>
       <c r="F11" s="80"/>
       <c r="G11" s="80"/>
-      <c r="H11" s="89"/>
-      <c r="I11" s="87"/>
-      <c r="J11" s="87"/>
-      <c r="K11" s="87"/>
-      <c r="L11" s="103"/>
-      <c r="M11" s="92"/>
-    </row>
-    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="92"/>
-      <c r="B12" s="96"/>
-      <c r="C12" s="104"/>
-      <c r="D12" s="104"/>
-      <c r="E12" s="84"/>
-      <c r="F12" s="84"/>
-      <c r="G12" s="84"/>
-      <c r="H12" s="91"/>
-      <c r="I12" s="87" t="str">
+      <c r="H11" s="87"/>
+      <c r="I11" s="81"/>
+      <c r="J11" s="81"/>
+      <c r="K11" s="81"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="90"/>
+    </row>
+    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="90"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="83"/>
+      <c r="F12" s="83"/>
+      <c r="G12" s="83"/>
+      <c r="H12" s="89"/>
+      <c r="I12" s="81" t="str">
         <f>IF(H12&gt;0,#REF!/H12," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="J12" s="87" t="str">
+      <c r="J12" s="81" t="str">
         <f>IF(H12&gt;0,I12-K12," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K12" s="87" t="str">
+      <c r="K12" s="81" t="str">
         <f>IF(H12&gt;0,G12/H12," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L12" s="104"/>
-      <c r="M12" s="92"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="92"/>
-      <c r="B13" s="95"/>
-      <c r="C13" s="103"/>
-      <c r="D13" s="103"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="90"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A13" s="90"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
       <c r="E13" s="80"/>
       <c r="F13" s="80"/>
       <c r="G13" s="80"/>
-      <c r="H13" s="89"/>
-      <c r="I13" s="87"/>
-      <c r="J13" s="87"/>
-      <c r="K13" s="87"/>
-      <c r="L13" s="103"/>
-      <c r="M13" s="92"/>
-    </row>
-    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="92"/>
-      <c r="B14" s="96"/>
-      <c r="C14" s="104"/>
-      <c r="D14" s="104"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="84"/>
-      <c r="G14" s="84"/>
-      <c r="H14" s="91"/>
-      <c r="I14" s="87" t="str">
+      <c r="H13" s="87"/>
+      <c r="I13" s="81"/>
+      <c r="J13" s="81"/>
+      <c r="K13" s="81"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="90"/>
+    </row>
+    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="90"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="83"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="89"/>
+      <c r="I14" s="81" t="str">
         <f>IF(H14&gt;0,#REF!/H14," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="J14" s="87" t="str">
+      <c r="J14" s="81" t="str">
         <f>IF(H14&gt;0,I14-K14," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K14" s="87" t="str">
+      <c r="K14" s="81" t="str">
         <f>IF(H14&gt;0,G14/H14," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L14" s="104"/>
-      <c r="M14" s="92"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="92"/>
-      <c r="B15" s="95"/>
-      <c r="C15" s="103"/>
-      <c r="D15" s="103"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="90"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A15" s="90"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
       <c r="E15" s="80"/>
       <c r="F15" s="80"/>
       <c r="G15" s="80"/>
-      <c r="H15" s="89"/>
-      <c r="I15" s="87"/>
-      <c r="J15" s="87"/>
-      <c r="K15" s="87"/>
-      <c r="L15" s="103"/>
-      <c r="M15" s="92"/>
-    </row>
-    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="92"/>
-      <c r="B16" s="96"/>
-      <c r="C16" s="104"/>
-      <c r="D16" s="104"/>
-      <c r="E16" s="84"/>
-      <c r="F16" s="84"/>
-      <c r="G16" s="84"/>
-      <c r="H16" s="91"/>
-      <c r="I16" s="87" t="str">
+      <c r="H15" s="87"/>
+      <c r="I15" s="81"/>
+      <c r="J15" s="81"/>
+      <c r="K15" s="81"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="90"/>
+    </row>
+    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="90"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="83"/>
+      <c r="F16" s="83"/>
+      <c r="G16" s="83"/>
+      <c r="H16" s="89"/>
+      <c r="I16" s="81" t="str">
         <f>IF(H16&gt;0,#REF!/H16," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="J16" s="87" t="str">
+      <c r="J16" s="81" t="str">
         <f>IF(H16&gt;0,I16-K16," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K16" s="87" t="str">
+      <c r="K16" s="81" t="str">
         <f>IF(H16&gt;0,G16/H16," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L16" s="104"/>
-      <c r="M16" s="92"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="92"/>
-      <c r="B17" s="95"/>
-      <c r="C17" s="103"/>
-      <c r="D17" s="103"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="90"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A17" s="90"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
       <c r="E17" s="80"/>
       <c r="F17" s="80"/>
       <c r="G17" s="80"/>
-      <c r="H17" s="89"/>
-      <c r="I17" s="87"/>
-      <c r="J17" s="87"/>
-      <c r="K17" s="87"/>
-      <c r="L17" s="103"/>
-      <c r="M17" s="92"/>
-    </row>
-    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="92"/>
-      <c r="B18" s="96"/>
-      <c r="C18" s="104"/>
-      <c r="D18" s="104"/>
-      <c r="E18" s="84"/>
-      <c r="F18" s="84"/>
-      <c r="G18" s="84"/>
-      <c r="H18" s="91"/>
-      <c r="I18" s="87" t="str">
+      <c r="H17" s="87"/>
+      <c r="I17" s="81"/>
+      <c r="J17" s="81"/>
+      <c r="K17" s="81"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="90"/>
+    </row>
+    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="90"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="83"/>
+      <c r="F18" s="83"/>
+      <c r="G18" s="83"/>
+      <c r="H18" s="89"/>
+      <c r="I18" s="81" t="str">
         <f>IF(H18&gt;0,#REF!/H18," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="J18" s="87" t="str">
+      <c r="J18" s="81" t="str">
         <f>IF(H18&gt;0,I18-K18," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K18" s="87" t="str">
+      <c r="K18" s="81" t="str">
         <f>IF(H18&gt;0,G18/H18," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L18" s="104"/>
-      <c r="M18" s="92"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="92"/>
-      <c r="B19" s="95"/>
-      <c r="C19" s="103"/>
-      <c r="D19" s="103"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="90"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A19" s="90"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
       <c r="E19" s="80"/>
       <c r="F19" s="80"/>
       <c r="G19" s="80"/>
-      <c r="H19" s="89"/>
-      <c r="I19" s="87"/>
-      <c r="J19" s="87"/>
-      <c r="K19" s="87"/>
-      <c r="L19" s="103"/>
-      <c r="M19" s="92"/>
-    </row>
-    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="92"/>
-      <c r="B20" s="96"/>
-      <c r="C20" s="104"/>
-      <c r="D20" s="104"/>
-      <c r="E20" s="84"/>
-      <c r="F20" s="84"/>
-      <c r="G20" s="84"/>
-      <c r="H20" s="91"/>
-      <c r="I20" s="87" t="str">
+      <c r="H19" s="87"/>
+      <c r="I19" s="81"/>
+      <c r="J19" s="81"/>
+      <c r="K19" s="81"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="90"/>
+    </row>
+    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="90"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="83"/>
+      <c r="G20" s="83"/>
+      <c r="H20" s="89"/>
+      <c r="I20" s="81" t="str">
         <f>IF(H20&gt;0,#REF!/H20," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="J20" s="87" t="str">
+      <c r="J20" s="81" t="str">
         <f>IF(H20&gt;0,I20-K20," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K20" s="87" t="str">
+      <c r="K20" s="81" t="str">
         <f>IF(H20&gt;0,G20/H20," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L20" s="104"/>
-      <c r="M20" s="92"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="92"/>
-      <c r="B21" s="95"/>
-      <c r="C21" s="103"/>
-      <c r="D21" s="103"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="90"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A21" s="90"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
       <c r="E21" s="80"/>
       <c r="F21" s="80"/>
       <c r="G21" s="80"/>
-      <c r="H21" s="89"/>
-      <c r="I21" s="87"/>
-      <c r="J21" s="87"/>
-      <c r="K21" s="87"/>
-      <c r="L21" s="103"/>
-      <c r="M21" s="92"/>
-    </row>
-    <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="92"/>
-      <c r="B22" s="96"/>
-      <c r="C22" s="104"/>
-      <c r="D22" s="104"/>
-      <c r="E22" s="84"/>
-      <c r="F22" s="84"/>
-      <c r="G22" s="84"/>
-      <c r="H22" s="91"/>
-      <c r="I22" s="87" t="str">
+      <c r="H21" s="87"/>
+      <c r="I21" s="81"/>
+      <c r="J21" s="81"/>
+      <c r="K21" s="81"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="90"/>
+    </row>
+    <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="90"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="83"/>
+      <c r="F22" s="83"/>
+      <c r="G22" s="83"/>
+      <c r="H22" s="89"/>
+      <c r="I22" s="81" t="str">
         <f>IF(H22&gt;0,#REF!/H22," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="J22" s="87" t="str">
+      <c r="J22" s="81" t="str">
         <f>IF(H22&gt;0,I22-K22," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K22" s="87" t="str">
+      <c r="K22" s="81" t="str">
         <f>IF(H22&gt;0,G22/H22," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L22" s="104"/>
-      <c r="M22" s="92"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="92"/>
-      <c r="B23" s="95"/>
-      <c r="C23" s="103"/>
-      <c r="D23" s="103"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="90"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A23" s="90"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
       <c r="E23" s="80"/>
       <c r="F23" s="80"/>
       <c r="G23" s="80"/>
-      <c r="H23" s="89"/>
-      <c r="I23" s="87"/>
-      <c r="J23" s="87"/>
-      <c r="K23" s="87"/>
-      <c r="L23" s="103"/>
-      <c r="M23" s="92"/>
-    </row>
-    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="92"/>
-      <c r="B24" s="96"/>
-      <c r="C24" s="104"/>
-      <c r="D24" s="104"/>
-      <c r="E24" s="84"/>
-      <c r="F24" s="84"/>
-      <c r="G24" s="84"/>
-      <c r="H24" s="91"/>
-      <c r="I24" s="87" t="str">
+      <c r="H23" s="87"/>
+      <c r="I23" s="81"/>
+      <c r="J23" s="81"/>
+      <c r="K23" s="81"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="90"/>
+    </row>
+    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="90"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="83"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="83"/>
+      <c r="H24" s="89"/>
+      <c r="I24" s="81" t="str">
         <f>IF(H24&gt;0,#REF!/H24," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="J24" s="87" t="str">
+      <c r="J24" s="81" t="str">
         <f>IF(H24&gt;0,I24-K24," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K24" s="87" t="str">
+      <c r="K24" s="81" t="str">
         <f>IF(H24&gt;0,G24/H24," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L24" s="104"/>
-      <c r="M24" s="92"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" s="92"/>
-      <c r="B25" s="95"/>
-      <c r="C25" s="103"/>
-      <c r="D25" s="103"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="90"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A25" s="90"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
       <c r="E25" s="80"/>
       <c r="F25" s="80"/>
       <c r="G25" s="80"/>
-      <c r="H25" s="89"/>
-      <c r="I25" s="87"/>
-      <c r="J25" s="87"/>
-      <c r="K25" s="87"/>
-      <c r="L25" s="103"/>
-      <c r="M25" s="92"/>
-    </row>
-    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="92"/>
-      <c r="B26" s="96"/>
-      <c r="C26" s="104"/>
-      <c r="D26" s="104"/>
-      <c r="E26" s="84"/>
-      <c r="F26" s="84"/>
-      <c r="G26" s="84"/>
-      <c r="H26" s="91"/>
-      <c r="I26" s="87" t="str">
+      <c r="H25" s="87"/>
+      <c r="I25" s="81"/>
+      <c r="J25" s="81"/>
+      <c r="K25" s="81"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="90"/>
+    </row>
+    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="90"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="83"/>
+      <c r="F26" s="83"/>
+      <c r="G26" s="83"/>
+      <c r="H26" s="89"/>
+      <c r="I26" s="81" t="str">
         <f>IF(H26&gt;0,#REF!/H26," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="J26" s="87" t="str">
+      <c r="J26" s="81" t="str">
         <f>IF(H26&gt;0,I26-K26," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K26" s="87" t="str">
+      <c r="K26" s="81" t="str">
         <f>IF(H26&gt;0,G26/H26," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L26" s="104"/>
-      <c r="M26" s="92"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="92"/>
-      <c r="B27" s="95"/>
-      <c r="C27" s="103"/>
-      <c r="D27" s="103"/>
+      <c r="L26" s="42"/>
+      <c r="M26" s="90"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A27" s="90"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
       <c r="E27" s="80"/>
       <c r="F27" s="80"/>
       <c r="G27" s="80"/>
-      <c r="H27" s="89"/>
-      <c r="I27" s="87"/>
-      <c r="J27" s="87"/>
-      <c r="K27" s="87"/>
-      <c r="L27" s="103"/>
-      <c r="M27" s="92"/>
-    </row>
-    <row r="28" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="92"/>
-      <c r="B28" s="97"/>
-      <c r="C28" s="105"/>
-      <c r="D28" s="105"/>
-      <c r="E28" s="92"/>
-      <c r="F28" s="92"/>
-      <c r="G28" s="92"/>
-      <c r="H28" s="94"/>
-      <c r="I28" s="93"/>
-      <c r="J28" s="93"/>
-      <c r="K28" s="93"/>
-      <c r="L28" s="105"/>
-      <c r="M28" s="92"/>
-    </row>
-    <row r="29" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="92"/>
-      <c r="B29" s="101" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" s="103"/>
-      <c r="D29" s="102"/>
-      <c r="E29" s="83"/>
-      <c r="F29" s="83"/>
-      <c r="G29" s="83"/>
+      <c r="H27" s="87"/>
+      <c r="I27" s="81"/>
+      <c r="J27" s="81"/>
+      <c r="K27" s="81"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="90"/>
+    </row>
+    <row r="28" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="90"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="90"/>
+      <c r="F28" s="90"/>
+      <c r="G28" s="90"/>
+      <c r="H28" s="92"/>
+      <c r="I28" s="91"/>
+      <c r="J28" s="91"/>
+      <c r="K28" s="91"/>
+      <c r="L28" s="48"/>
+      <c r="M28" s="90"/>
+    </row>
+    <row r="29" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="90"/>
+      <c r="B29" s="94" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="31"/>
+      <c r="D29" s="95"/>
+      <c r="E29" s="80"/>
+      <c r="F29" s="80"/>
+      <c r="G29" s="80"/>
       <c r="H29" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="I29" s="99"/>
-      <c r="J29" s="99"/>
-      <c r="K29" s="99"/>
+        <v>42</v>
+      </c>
+      <c r="I29" s="80"/>
+      <c r="J29" s="80"/>
+      <c r="K29" s="80"/>
       <c r="L29" s="31"/>
-      <c r="M29" s="92"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" s="92"/>
-      <c r="B30" s="95"/>
-      <c r="C30" s="103"/>
-      <c r="D30" s="103"/>
+      <c r="M29" s="90"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A30" s="90"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
       <c r="E30" s="80"/>
       <c r="F30" s="80"/>
       <c r="G30" s="80"/>
-      <c r="H30" s="89"/>
+      <c r="H30" s="87"/>
       <c r="I30" s="81"/>
       <c r="J30" s="81"/>
       <c r="K30" s="81"/>
-      <c r="L30" s="103"/>
-      <c r="M30" s="92"/>
-    </row>
-    <row r="31" spans="1:13" s="86" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="109"/>
-      <c r="B31" s="146" t="s">
-        <v>39</v>
-      </c>
-      <c r="C31" s="149" t="s">
+      <c r="L30" s="31"/>
+      <c r="M30" s="90"/>
+    </row>
+    <row r="31" spans="1:13" s="85" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="93"/>
+      <c r="B31" s="138" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="148" t="s">
         <v>33</v>
       </c>
-      <c r="D31" s="149" t="s">
+      <c r="D31" s="148" t="s">
+        <v>66</v>
+      </c>
+      <c r="E31" s="182" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" s="182" t="s">
+        <v>43</v>
+      </c>
+      <c r="G31" s="182" t="s">
         <v>37</v>
       </c>
-      <c r="E31" s="199" t="s">
+      <c r="H31" s="148" t="s">
+        <v>35</v>
+      </c>
+      <c r="I31" s="182" t="s">
+        <v>46</v>
+      </c>
+      <c r="J31" s="183"/>
+      <c r="K31" s="183"/>
+      <c r="L31" s="148" t="s">
         <v>45</v>
       </c>
-      <c r="F31" s="199" t="s">
-        <v>44</v>
-      </c>
-      <c r="G31" s="199" t="s">
-        <v>38</v>
-      </c>
-      <c r="H31" s="149" t="s">
-        <v>35</v>
-      </c>
-      <c r="I31" s="199" t="s">
-        <v>47</v>
-      </c>
-      <c r="J31" s="200"/>
-      <c r="K31" s="200"/>
-      <c r="L31" s="149" t="s">
-        <v>46</v>
-      </c>
-      <c r="M31" s="100"/>
-    </row>
-    <row r="32" spans="1:13" s="86" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="109"/>
-      <c r="B32" s="198"/>
-      <c r="C32" s="198"/>
-      <c r="D32" s="198"/>
-      <c r="E32" s="198"/>
-      <c r="F32" s="198"/>
-      <c r="G32" s="198"/>
-      <c r="H32" s="198"/>
-      <c r="I32" s="85" t="s">
+      <c r="M31" s="93"/>
+    </row>
+    <row r="32" spans="1:13" s="85" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="93"/>
+      <c r="B32" s="186"/>
+      <c r="C32" s="186"/>
+      <c r="D32" s="186"/>
+      <c r="E32" s="186"/>
+      <c r="F32" s="186"/>
+      <c r="G32" s="186"/>
+      <c r="H32" s="186"/>
+      <c r="I32" s="84" t="s">
         <v>34</v>
       </c>
-      <c r="J32" s="85" t="s">
-        <v>42</v>
-      </c>
-      <c r="K32" s="85" t="s">
+      <c r="J32" s="84" t="s">
+        <v>41</v>
+      </c>
+      <c r="K32" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="L32" s="198"/>
-      <c r="M32" s="100"/>
-    </row>
-    <row r="33" spans="1:13" s="86" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="109"/>
-      <c r="B33" s="110"/>
-      <c r="C33" s="110"/>
-      <c r="D33" s="110"/>
-      <c r="E33" s="110"/>
-      <c r="F33" s="110"/>
-      <c r="G33" s="110"/>
-      <c r="H33" s="110"/>
-      <c r="I33" s="108"/>
-      <c r="J33" s="108"/>
-      <c r="K33" s="108"/>
-      <c r="L33" s="110"/>
-      <c r="M33" s="100"/>
-    </row>
-    <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="92"/>
-      <c r="B34" s="96"/>
-      <c r="C34" s="104"/>
-      <c r="D34" s="104"/>
-      <c r="E34" s="84"/>
-      <c r="F34" s="84"/>
-      <c r="G34" s="84"/>
-      <c r="H34" s="91"/>
-      <c r="I34" s="87" t="str">
+      <c r="L32" s="186"/>
+      <c r="M32" s="93"/>
+    </row>
+    <row r="33" spans="1:13" s="85" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="93"/>
+      <c r="B33" s="98"/>
+      <c r="C33" s="98"/>
+      <c r="D33" s="98"/>
+      <c r="E33" s="98"/>
+      <c r="F33" s="98"/>
+      <c r="G33" s="98"/>
+      <c r="H33" s="98"/>
+      <c r="I33" s="97"/>
+      <c r="J33" s="97"/>
+      <c r="K33" s="97"/>
+      <c r="L33" s="98"/>
+      <c r="M33" s="93"/>
+    </row>
+    <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="90"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="83"/>
+      <c r="F34" s="83"/>
+      <c r="G34" s="83"/>
+      <c r="H34" s="89"/>
+      <c r="I34" s="81" t="str">
         <f>IF(E34&gt;0,(E34+F34+G34)/H34," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="J34" s="87" t="str">
+      <c r="J34" s="81" t="str">
         <f>IF(H34&gt;0,I34-K34," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K34" s="87" t="str">
+      <c r="K34" s="81" t="str">
         <f>IF(H34&gt;0,G34/H34," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L34" s="104"/>
-      <c r="M34" s="92"/>
-    </row>
-    <row r="35" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="92"/>
-      <c r="B35" s="95"/>
-      <c r="C35" s="103"/>
-      <c r="D35" s="103"/>
+      <c r="L34" s="42"/>
+      <c r="M34" s="90"/>
+    </row>
+    <row r="35" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="90"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
       <c r="E35" s="80"/>
       <c r="F35" s="80"/>
       <c r="G35" s="80"/>
-      <c r="H35" s="89"/>
-      <c r="I35" s="87"/>
-      <c r="J35" s="87"/>
-      <c r="K35" s="87"/>
-      <c r="L35" s="103"/>
-      <c r="M35" s="92"/>
-    </row>
-    <row r="36" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="92"/>
-      <c r="B36" s="96"/>
-      <c r="C36" s="104"/>
-      <c r="D36" s="104"/>
-      <c r="E36" s="84"/>
-      <c r="F36" s="84"/>
-      <c r="G36" s="84"/>
-      <c r="H36" s="91"/>
-      <c r="I36" s="87" t="str">
+      <c r="H35" s="87"/>
+      <c r="I35" s="81"/>
+      <c r="J35" s="81"/>
+      <c r="K35" s="81"/>
+      <c r="L35" s="31"/>
+      <c r="M35" s="90"/>
+    </row>
+    <row r="36" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="90"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="83"/>
+      <c r="F36" s="83"/>
+      <c r="G36" s="83"/>
+      <c r="H36" s="89"/>
+      <c r="I36" s="81" t="str">
         <f>IF(H36&gt;0,#REF!/H36," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="J36" s="87" t="str">
+      <c r="J36" s="81" t="str">
         <f>IF(H36&gt;0,I36-K36," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K36" s="87" t="str">
+      <c r="K36" s="81" t="str">
         <f>IF(H36&gt;0,G36/H36," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L36" s="104"/>
-      <c r="M36" s="92"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37" s="92"/>
-      <c r="B37" s="95"/>
-      <c r="C37" s="103"/>
-      <c r="D37" s="103"/>
+      <c r="L36" s="42"/>
+      <c r="M36" s="90"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A37" s="90"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
       <c r="E37" s="80"/>
       <c r="F37" s="80"/>
       <c r="G37" s="80"/>
-      <c r="H37" s="89"/>
-      <c r="I37" s="87"/>
-      <c r="J37" s="87"/>
-      <c r="K37" s="87"/>
-      <c r="L37" s="103"/>
-      <c r="M37" s="92"/>
-    </row>
-    <row r="38" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="92"/>
-      <c r="B38" s="96"/>
-      <c r="C38" s="104"/>
-      <c r="D38" s="104"/>
-      <c r="E38" s="84"/>
-      <c r="F38" s="84"/>
-      <c r="G38" s="84"/>
-      <c r="H38" s="91"/>
-      <c r="I38" s="87" t="str">
+      <c r="H37" s="87"/>
+      <c r="I37" s="81"/>
+      <c r="J37" s="81"/>
+      <c r="K37" s="81"/>
+      <c r="L37" s="31"/>
+      <c r="M37" s="90"/>
+    </row>
+    <row r="38" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="90"/>
+      <c r="B38" s="41"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="83"/>
+      <c r="F38" s="83"/>
+      <c r="G38" s="83"/>
+      <c r="H38" s="89"/>
+      <c r="I38" s="81" t="str">
         <f>IF(H38&gt;0,#REF!/H38," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="J38" s="87" t="str">
+      <c r="J38" s="81" t="str">
         <f>IF(H38&gt;0,I38-K38," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K38" s="87" t="str">
+      <c r="K38" s="81" t="str">
         <f>IF(H38&gt;0,G38/H38," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L38" s="104"/>
-      <c r="M38" s="92"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A39" s="92"/>
-      <c r="B39" s="95"/>
-      <c r="C39" s="103"/>
-      <c r="D39" s="103"/>
+      <c r="L38" s="42"/>
+      <c r="M38" s="90"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A39" s="90"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
       <c r="E39" s="80"/>
       <c r="F39" s="80"/>
       <c r="G39" s="80"/>
-      <c r="H39" s="89"/>
-      <c r="I39" s="87"/>
-      <c r="J39" s="87"/>
-      <c r="K39" s="87"/>
-      <c r="L39" s="103"/>
-      <c r="M39" s="92"/>
-    </row>
-    <row r="40" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="92"/>
-      <c r="B40" s="96"/>
-      <c r="C40" s="104"/>
-      <c r="D40" s="104"/>
-      <c r="E40" s="84"/>
-      <c r="F40" s="84"/>
-      <c r="G40" s="84"/>
-      <c r="H40" s="91"/>
-      <c r="I40" s="87" t="str">
+      <c r="H39" s="87"/>
+      <c r="I39" s="81"/>
+      <c r="J39" s="81"/>
+      <c r="K39" s="81"/>
+      <c r="L39" s="31"/>
+      <c r="M39" s="90"/>
+    </row>
+    <row r="40" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="90"/>
+      <c r="B40" s="41"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="83"/>
+      <c r="F40" s="83"/>
+      <c r="G40" s="83"/>
+      <c r="H40" s="89"/>
+      <c r="I40" s="81" t="str">
         <f>IF(H40&gt;0,#REF!/H40," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="J40" s="87" t="str">
+      <c r="J40" s="81" t="str">
         <f>IF(H40&gt;0,I40-K40," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K40" s="87" t="str">
+      <c r="K40" s="81" t="str">
         <f>IF(H40&gt;0,G40/H40," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L40" s="104"/>
-      <c r="M40" s="92"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A41" s="92"/>
-      <c r="B41" s="95"/>
-      <c r="C41" s="103"/>
-      <c r="D41" s="103"/>
+      <c r="L40" s="42"/>
+      <c r="M40" s="90"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A41" s="90"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
       <c r="E41" s="80"/>
       <c r="F41" s="80"/>
       <c r="G41" s="80"/>
-      <c r="H41" s="89"/>
-      <c r="I41" s="87"/>
-      <c r="J41" s="87"/>
-      <c r="K41" s="87"/>
-      <c r="L41" s="103"/>
-      <c r="M41" s="92"/>
-    </row>
-    <row r="42" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="92"/>
-      <c r="B42" s="96"/>
-      <c r="C42" s="104"/>
-      <c r="D42" s="104"/>
-      <c r="E42" s="84"/>
-      <c r="F42" s="84"/>
-      <c r="G42" s="84"/>
-      <c r="H42" s="91"/>
-      <c r="I42" s="87" t="str">
+      <c r="H41" s="87"/>
+      <c r="I41" s="81"/>
+      <c r="J41" s="81"/>
+      <c r="K41" s="81"/>
+      <c r="L41" s="31"/>
+      <c r="M41" s="90"/>
+    </row>
+    <row r="42" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="90"/>
+      <c r="B42" s="41"/>
+      <c r="C42" s="42"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="83"/>
+      <c r="F42" s="83"/>
+      <c r="G42" s="83"/>
+      <c r="H42" s="89"/>
+      <c r="I42" s="81" t="str">
         <f>IF(H42&gt;0,#REF!/H42," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="J42" s="87" t="str">
+      <c r="J42" s="81" t="str">
         <f>IF(H42&gt;0,I42-K42," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K42" s="87" t="str">
+      <c r="K42" s="81" t="str">
         <f>IF(H42&gt;0,G42/H42," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L42" s="104"/>
-      <c r="M42" s="92"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A43" s="92"/>
-      <c r="B43" s="95"/>
-      <c r="C43" s="103"/>
-      <c r="D43" s="103"/>
+      <c r="L42" s="42"/>
+      <c r="M42" s="90"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A43" s="90"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="31"/>
       <c r="E43" s="80"/>
       <c r="F43" s="80"/>
       <c r="G43" s="80"/>
-      <c r="H43" s="89"/>
-      <c r="I43" s="87"/>
-      <c r="J43" s="87"/>
-      <c r="K43" s="87"/>
-      <c r="L43" s="103"/>
-      <c r="M43" s="92"/>
-    </row>
-    <row r="44" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="92"/>
-      <c r="B44" s="96"/>
-      <c r="C44" s="104"/>
-      <c r="D44" s="104"/>
-      <c r="E44" s="84"/>
-      <c r="F44" s="84"/>
-      <c r="G44" s="84"/>
-      <c r="H44" s="91"/>
-      <c r="I44" s="87" t="str">
+      <c r="H43" s="87"/>
+      <c r="I43" s="81"/>
+      <c r="J43" s="81"/>
+      <c r="K43" s="81"/>
+      <c r="L43" s="31"/>
+      <c r="M43" s="90"/>
+    </row>
+    <row r="44" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="90"/>
+      <c r="B44" s="41"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="83"/>
+      <c r="F44" s="83"/>
+      <c r="G44" s="83"/>
+      <c r="H44" s="89"/>
+      <c r="I44" s="81" t="str">
         <f>IF(H44&gt;0,#REF!/H44," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="J44" s="87" t="str">
+      <c r="J44" s="81" t="str">
         <f>IF(H44&gt;0,I44-K44," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K44" s="87" t="str">
+      <c r="K44" s="81" t="str">
         <f>IF(H44&gt;0,G44/H44," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L44" s="104"/>
-      <c r="M44" s="92"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A45" s="92"/>
-      <c r="B45" s="95"/>
-      <c r="C45" s="103"/>
-      <c r="D45" s="103"/>
+      <c r="L44" s="42"/>
+      <c r="M44" s="90"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A45" s="90"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="31"/>
       <c r="E45" s="80"/>
       <c r="F45" s="80"/>
       <c r="G45" s="80"/>
-      <c r="H45" s="89"/>
-      <c r="I45" s="87"/>
-      <c r="J45" s="87"/>
-      <c r="K45" s="87"/>
-      <c r="L45" s="103"/>
-      <c r="M45" s="92"/>
-    </row>
-    <row r="46" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="92"/>
-      <c r="B46" s="96"/>
-      <c r="C46" s="104"/>
-      <c r="D46" s="104"/>
-      <c r="E46" s="84"/>
-      <c r="F46" s="84"/>
-      <c r="G46" s="84"/>
-      <c r="H46" s="91"/>
-      <c r="I46" s="87" t="str">
+      <c r="H45" s="87"/>
+      <c r="I45" s="81"/>
+      <c r="J45" s="81"/>
+      <c r="K45" s="81"/>
+      <c r="L45" s="31"/>
+      <c r="M45" s="90"/>
+    </row>
+    <row r="46" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="90"/>
+      <c r="B46" s="41"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="42"/>
+      <c r="E46" s="83"/>
+      <c r="F46" s="83"/>
+      <c r="G46" s="83"/>
+      <c r="H46" s="89"/>
+      <c r="I46" s="81" t="str">
         <f>IF(H46&gt;0,#REF!/H46," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="J46" s="87" t="str">
+      <c r="J46" s="81" t="str">
         <f>IF(H46&gt;0,I46-K46," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K46" s="87" t="str">
+      <c r="K46" s="81" t="str">
         <f>IF(H46&gt;0,G46/H46," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L46" s="104"/>
-      <c r="M46" s="92"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A47" s="92"/>
-      <c r="B47" s="95"/>
-      <c r="C47" s="103"/>
-      <c r="D47" s="103"/>
+      <c r="L46" s="42"/>
+      <c r="M46" s="90"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A47" s="90"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="31"/>
       <c r="E47" s="80"/>
       <c r="F47" s="80"/>
       <c r="G47" s="80"/>
-      <c r="H47" s="89"/>
-      <c r="I47" s="87"/>
-      <c r="J47" s="87"/>
-      <c r="K47" s="87"/>
-      <c r="L47" s="103"/>
-      <c r="M47" s="92"/>
-    </row>
-    <row r="48" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="92"/>
-      <c r="B48" s="96"/>
-      <c r="C48" s="104"/>
-      <c r="D48" s="104"/>
-      <c r="E48" s="84"/>
-      <c r="F48" s="84"/>
-      <c r="G48" s="84"/>
-      <c r="H48" s="91"/>
-      <c r="I48" s="87" t="str">
+      <c r="H47" s="87"/>
+      <c r="I47" s="81"/>
+      <c r="J47" s="81"/>
+      <c r="K47" s="81"/>
+      <c r="L47" s="31"/>
+      <c r="M47" s="90"/>
+    </row>
+    <row r="48" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="90"/>
+      <c r="B48" s="41"/>
+      <c r="C48" s="42"/>
+      <c r="D48" s="42"/>
+      <c r="E48" s="83"/>
+      <c r="F48" s="83"/>
+      <c r="G48" s="83"/>
+      <c r="H48" s="89"/>
+      <c r="I48" s="81" t="str">
         <f>IF(H48&gt;0,#REF!/H48," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="J48" s="87" t="str">
+      <c r="J48" s="81" t="str">
         <f>IF(H48&gt;0,I48-K48," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K48" s="87" t="str">
+      <c r="K48" s="81" t="str">
         <f>IF(H48&gt;0,G48/H48," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L48" s="104"/>
-      <c r="M48" s="92"/>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A49" s="92"/>
-      <c r="B49" s="95"/>
-      <c r="C49" s="103"/>
-      <c r="D49" s="103"/>
+      <c r="L48" s="42"/>
+      <c r="M48" s="90"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A49" s="90"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="31"/>
+      <c r="D49" s="31"/>
       <c r="E49" s="80"/>
       <c r="F49" s="80"/>
       <c r="G49" s="80"/>
-      <c r="H49" s="89"/>
-      <c r="I49" s="87"/>
-      <c r="J49" s="87"/>
-      <c r="K49" s="87"/>
-      <c r="L49" s="103"/>
-      <c r="M49" s="92"/>
-    </row>
-    <row r="50" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="92"/>
-      <c r="B50" s="96"/>
-      <c r="C50" s="104"/>
-      <c r="D50" s="104"/>
-      <c r="E50" s="84"/>
-      <c r="F50" s="84"/>
-      <c r="G50" s="84"/>
-      <c r="H50" s="91"/>
-      <c r="I50" s="87" t="str">
+      <c r="H49" s="87"/>
+      <c r="I49" s="81"/>
+      <c r="J49" s="81"/>
+      <c r="K49" s="81"/>
+      <c r="L49" s="31"/>
+      <c r="M49" s="90"/>
+    </row>
+    <row r="50" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="90"/>
+      <c r="B50" s="41"/>
+      <c r="C50" s="42"/>
+      <c r="D50" s="42"/>
+      <c r="E50" s="83"/>
+      <c r="F50" s="83"/>
+      <c r="G50" s="83"/>
+      <c r="H50" s="89"/>
+      <c r="I50" s="81" t="str">
         <f>IF(H50&gt;0,#REF!/H50," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="J50" s="87" t="str">
+      <c r="J50" s="81" t="str">
         <f>IF(H50&gt;0,I50-K50," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K50" s="87" t="str">
+      <c r="K50" s="81" t="str">
         <f>IF(H50&gt;0,G50/H50," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L50" s="104"/>
-      <c r="M50" s="92"/>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A51" s="92"/>
-      <c r="B51" s="95"/>
-      <c r="C51" s="103"/>
-      <c r="D51" s="103"/>
+      <c r="L50" s="42"/>
+      <c r="M50" s="90"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A51" s="90"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="31"/>
       <c r="E51" s="80"/>
       <c r="F51" s="80"/>
       <c r="G51" s="80"/>
-      <c r="H51" s="89"/>
-      <c r="I51" s="87"/>
-      <c r="J51" s="87"/>
-      <c r="K51" s="87"/>
-      <c r="L51" s="103"/>
-      <c r="M51" s="92"/>
-    </row>
-    <row r="52" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="92"/>
-      <c r="B52" s="96"/>
-      <c r="C52" s="104"/>
-      <c r="D52" s="104"/>
-      <c r="E52" s="84"/>
-      <c r="F52" s="84"/>
-      <c r="G52" s="84"/>
-      <c r="H52" s="91"/>
-      <c r="I52" s="87" t="str">
+      <c r="H51" s="87"/>
+      <c r="I51" s="81"/>
+      <c r="J51" s="81"/>
+      <c r="K51" s="81"/>
+      <c r="L51" s="31"/>
+      <c r="M51" s="90"/>
+    </row>
+    <row r="52" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="90"/>
+      <c r="B52" s="41"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="42"/>
+      <c r="E52" s="83"/>
+      <c r="F52" s="83"/>
+      <c r="G52" s="83"/>
+      <c r="H52" s="89"/>
+      <c r="I52" s="81" t="str">
         <f>IF(H52&gt;0,#REF!/H52," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="J52" s="87" t="str">
+      <c r="J52" s="81" t="str">
         <f>IF(H52&gt;0,I52-K52," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K52" s="87" t="str">
+      <c r="K52" s="81" t="str">
         <f>IF(H52&gt;0,G52/H52," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L52" s="104"/>
-      <c r="M52" s="92"/>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A53" s="92"/>
-      <c r="B53" s="95"/>
-      <c r="C53" s="103"/>
-      <c r="D53" s="103"/>
+      <c r="L52" s="42"/>
+      <c r="M52" s="90"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A53" s="90"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="31"/>
       <c r="E53" s="80"/>
       <c r="F53" s="80"/>
       <c r="G53" s="80"/>
-      <c r="H53" s="89"/>
-      <c r="I53" s="87"/>
-      <c r="J53" s="87"/>
-      <c r="K53" s="87"/>
-      <c r="L53" s="103"/>
-      <c r="M53" s="92"/>
-    </row>
-    <row r="54" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="92"/>
-      <c r="B54" s="97"/>
-      <c r="C54" s="105"/>
-      <c r="D54" s="105"/>
-      <c r="E54" s="92"/>
-      <c r="F54" s="92"/>
-      <c r="G54" s="92"/>
-      <c r="H54" s="94"/>
-      <c r="I54" s="111"/>
-      <c r="J54" s="111"/>
-      <c r="K54" s="111"/>
-      <c r="L54" s="105"/>
-      <c r="M54" s="92"/>
+      <c r="H53" s="87"/>
+      <c r="I53" s="81"/>
+      <c r="J53" s="81"/>
+      <c r="K53" s="81"/>
+      <c r="L53" s="31"/>
+      <c r="M53" s="90"/>
+    </row>
+    <row r="54" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="90"/>
+      <c r="B54" s="46"/>
+      <c r="C54" s="48"/>
+      <c r="D54" s="48"/>
+      <c r="E54" s="90"/>
+      <c r="F54" s="90"/>
+      <c r="G54" s="90"/>
+      <c r="H54" s="92"/>
+      <c r="I54" s="91"/>
+      <c r="J54" s="91"/>
+      <c r="K54" s="91"/>
+      <c r="L54" s="48"/>
+      <c r="M54" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
     <mergeCell ref="G2:K3"/>
     <mergeCell ref="I31:K31"/>
     <mergeCell ref="C2:D2"/>
@@ -9727,16 +9661,6 @@
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="H5:H6"/>
-    <mergeCell ref="L31:L32"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
